--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_14_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_14_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1119623.347592855</v>
+        <v>1172740.597108558</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4065790.381183238</v>
+        <v>4065790.381183237</v>
       </c>
     </row>
     <row r="8">
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="E11" t="n">
         <v>131.2015301826823</v>
@@ -1384,46 +1384,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>34.06259291064545</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>81.49971487426107</v>
+      </c>
+      <c r="S11" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>81.49971487426106</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
       <c r="T11" t="n">
-        <v>34.06259291064555</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1463,13 +1463,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>106.6111980758233</v>
       </c>
       <c r="I12" t="n">
-        <v>69.34652732857948</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>131.2015301826823</v>
       </c>
       <c r="W12" t="n">
-        <v>46.2157804563271</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>8.951109709083282</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="C13" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>70.28204657123847</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.28026121366808</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>131.2015301826823</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>115.5623077849066</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
     </row>
     <row r="14">
@@ -1618,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,22 +1654,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>81.49971487426106</v>
+        <v>81.49971487426107</v>
       </c>
       <c r="S14" t="n">
         <v>131.2015301826823</v>
       </c>
       <c r="T14" t="n">
-        <v>34.06259291064555</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>34.06259291064544</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1688,73 +1688,73 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>64.00123621872456</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
+      <c r="V15" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>115.5623077849066</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>51.56107156618203</v>
       </c>
       <c r="Y15" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>115.5623077849066</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>115.5623077849066</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
         <v>131.2015301826823</v>
-      </c>
-      <c r="T16" t="n">
-        <v>131.2015301826823</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>131.2015301826823</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>115.5623077849066</v>
+      </c>
+      <c r="E17" t="n">
         <v>131.2015301826823</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>131.2015301826823</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>115.5623077849066</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1922,17 +1922,17 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>46.21578045632711</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>69.34652732857948</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,19 +1973,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>115.5623077849066</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="V18" t="n">
         <v>131.2015301826823</v>
       </c>
       <c r="W18" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2001,73 +2001,73 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>131.2015301826823</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>131.2015301826823</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
         <v>115.5623077849066</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>131.2015301826823</v>
       </c>
       <c r="W19" t="n">
         <v>131.2015301826823</v>
       </c>
       <c r="X19" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>115.5623077849066</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>115.5623077849066</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>131.2015301826823</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="Y20" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2162,64 +2162,64 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>69.34652732857948</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>64.00123621872456</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>113.4160744202849</v>
+      </c>
+      <c r="V21" t="n">
         <v>131.2015301826823</v>
-      </c>
-      <c r="D21" t="n">
-        <v>115.5623077849066</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>131.2015301826823</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>131.2015301826823</v>
@@ -2244,70 +2244,70 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>115.5623077849066</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="E22" t="n">
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>115.5623077849066</v>
-      </c>
-      <c r="H22" t="n">
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
         <v>131.2015301826823</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>328.3281935684761</v>
       </c>
       <c r="I23" t="n">
-        <v>31.77147623531542</v>
+        <v>64.14057875749567</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,16 +2365,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>81.49971487426106</v>
       </c>
       <c r="S23" t="n">
-        <v>184.2180832787735</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>218.3313648658995</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2585806574976</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>66.92127159845994</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -2411,10 +2411,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.761170149299</v>
       </c>
       <c r="H24" t="n">
-        <v>90.3438288870038</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>197.8174615641865</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.903069777428</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2493,13 +2493,13 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>94.04826983769991</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>140.7683627807171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>58.84201380359813</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>215.5082519109386</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.8595577750547</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>283.3073405578989</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2566,10 +2566,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>156.9257988788424</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>81.49971487426106</v>
       </c>
       <c r="S26" t="n">
-        <v>184.2180832787735</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>384.0419702492419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>147.5304953130629</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -2642,19 +2642,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>136.761170149299</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>106.6111980758233</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>69.34652732857948</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>64.00123621872456</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>160.8663307357858</v>
@@ -2690,7 +2690,7 @@
         <v>197.8174615641865</v>
       </c>
       <c r="U27" t="n">
-        <v>88.06037046319652</v>
+        <v>225.903069777428</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2718,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>76.20993734979344</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>140.7683627807171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2772,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>74.36201451109291</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>199.964242178883</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>414.2143343858988</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>328.3281935684761</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>81.49971487426106</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>184.2180832787735</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>21.23155156141144</v>
       </c>
       <c r="U29" t="n">
         <v>251.2585806574976</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2879,19 +2879,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.761170149299</v>
+        <v>52.13450605177061</v>
       </c>
       <c r="H30" t="n">
-        <v>106.6111980758233</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.64777825029981</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>64.00123621872456</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>160.8663307357858</v>
       </c>
       <c r="T30" t="n">
         <v>197.8174615641865</v>
@@ -2933,7 +2933,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>77.22285197343137</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3009,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>31.31959962008849</v>
       </c>
     </row>
     <row r="32">
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>164.9215169603823</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3040,13 +3040,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>328.3281935684761</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>81.49971487426106</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>154.6355551937721</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>218.3313648658995</v>
@@ -3088,13 +3088,13 @@
         <v>251.2585806574976</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3119,16 +3119,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.761170149299</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>106.6111980758233</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>69.34652732857948</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>64.00123621872456</v>
       </c>
       <c r="S33" t="n">
-        <v>55.47486824923035</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>197.8174615641865</v>
       </c>
       <c r="U33" t="n">
         <v>225.903069777428</v>
@@ -3176,7 +3176,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>166.9885494039412</v>
       </c>
     </row>
     <row r="34">
@@ -3198,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>137.8862925349677</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>155.3412370008718</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>67.30266299549079</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.8595577750547</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3274,16 +3274,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>414.2143343858988</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>328.3281935684761</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>81.49971487426106</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>184.2180832787735</v>
       </c>
       <c r="T35" t="n">
-        <v>93.86407142840747</v>
+        <v>218.3313648658995</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2585806574976</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>170.933202124442</v>
       </c>
     </row>
     <row r="36">
@@ -3347,16 +3347,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3395,16 +3395,16 @@
         <v>64.00123621872456</v>
       </c>
       <c r="S36" t="n">
-        <v>108.6600737847228</v>
+        <v>160.8663307357858</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>111.9579435238233</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.903069777428</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.5027591842993</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>157.8864513226399</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>183.7776878260145</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>196.4990292113946</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>6.204495977272145</v>
+        <v>194.5460916366168</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.2143343858988</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>328.3281935684761</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>168.5152279305241</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>81.49971487426106</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3593,10 +3593,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.761170149299</v>
+        <v>39.8543708124012</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3629,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>64.00123621872456</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>160.8663307357858</v>
       </c>
       <c r="T39" t="n">
-        <v>52.61927476439584</v>
+        <v>197.8174615641865</v>
       </c>
       <c r="U39" t="n">
         <v>225.903069777428</v>
@@ -3644,7 +3644,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3666,16 +3666,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>134.8417699257041</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.5027591842993</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>89.52649582482633</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3720,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3748,13 +3748,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>14.6919967904576</v>
+        <v>414.2143343858988</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2585806574976</v>
+        <v>250.1734511119031</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,16 +3818,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -3836,7 +3836,7 @@
         <v>136.761170149299</v>
       </c>
       <c r="H42" t="n">
-        <v>23.71085002133167</v>
+        <v>106.6111980758233</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3875,16 +3875,16 @@
         <v>197.8174615641865</v>
       </c>
       <c r="U42" t="n">
-        <v>225.903069777428</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>188.9394485785363</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3906,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>167.5027591842993</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>157.8864513226399</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>49.80912847915396</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>183.7776878260145</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>282.1709378674701</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>141.7273743888012</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>414.2143343858988</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>328.3281935684761</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2585806574976</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4055,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>132.832733575699</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>160.8663307357858</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>197.8174615641865</v>
       </c>
       <c r="U45" t="n">
-        <v>204.0447879557894</v>
+        <v>225.903069777428</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>137.8862925349677</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.8595577750547</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4197,10 +4197,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>283.4572429439165</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>275.5497187432658</v>
+        <v>309.9563782489682</v>
       </c>
       <c r="C11" t="n">
-        <v>275.5497187432658</v>
+        <v>309.9563782489682</v>
       </c>
       <c r="D11" t="n">
-        <v>275.5497187432658</v>
+        <v>177.4295800846427</v>
       </c>
       <c r="E11" t="n">
-        <v>143.0229205789402</v>
+        <v>44.90278192031707</v>
       </c>
       <c r="F11" t="n">
-        <v>143.0229205789402</v>
+        <v>44.90278192031707</v>
       </c>
       <c r="G11" t="n">
-        <v>10.49612241461459</v>
+        <v>44.90278192031707</v>
       </c>
       <c r="H11" t="n">
-        <v>10.49612241461459</v>
+        <v>44.90278192031707</v>
       </c>
       <c r="I11" t="n">
         <v>10.49612241461459</v>
       </c>
       <c r="J11" t="n">
-        <v>90.11941249266594</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="K11" t="n">
-        <v>90.11941249266594</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="L11" t="n">
-        <v>158.5579427033263</v>
+        <v>140.3856372954701</v>
       </c>
       <c r="M11" t="n">
-        <v>288.4474575841818</v>
+        <v>158.5579427033262</v>
       </c>
       <c r="N11" t="n">
-        <v>418.3369724650373</v>
+        <v>288.4474575841817</v>
       </c>
       <c r="O11" t="n">
-        <v>418.3369724650373</v>
+        <v>418.3369724650372</v>
       </c>
       <c r="P11" t="n">
-        <v>418.3369724650373</v>
+        <v>418.3369724650372</v>
       </c>
       <c r="Q11" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="R11" t="n">
-        <v>442.483176413294</v>
+        <v>442.4831764132938</v>
       </c>
       <c r="S11" t="n">
-        <v>442.483176413294</v>
+        <v>309.9563782489682</v>
       </c>
       <c r="T11" t="n">
-        <v>408.0765169075914</v>
+        <v>309.9563782489682</v>
       </c>
       <c r="U11" t="n">
-        <v>408.0765169075914</v>
+        <v>309.9563782489682</v>
       </c>
       <c r="V11" t="n">
-        <v>408.0765169075914</v>
+        <v>309.9563782489682</v>
       </c>
       <c r="W11" t="n">
-        <v>408.0765169075914</v>
+        <v>309.9563782489682</v>
       </c>
       <c r="X11" t="n">
-        <v>275.5497187432658</v>
+        <v>309.9563782489682</v>
       </c>
       <c r="Y11" t="n">
-        <v>275.5497187432658</v>
+        <v>309.9563782489682</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>80.54311971621003</v>
+        <v>250.7109994434082</v>
       </c>
       <c r="C12" t="n">
-        <v>80.54311971621003</v>
+        <v>250.7109994434082</v>
       </c>
       <c r="D12" t="n">
-        <v>80.54311971621003</v>
+        <v>250.7109994434082</v>
       </c>
       <c r="E12" t="n">
-        <v>80.54311971621003</v>
+        <v>250.7109994434082</v>
       </c>
       <c r="F12" t="n">
-        <v>80.54311971621003</v>
+        <v>250.7109994434082</v>
       </c>
       <c r="G12" t="n">
-        <v>80.54311971621003</v>
+        <v>118.1842012790826</v>
       </c>
       <c r="H12" t="n">
-        <v>80.54311971621003</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="I12" t="n">
         <v>10.49612241461459</v>
@@ -5123,49 +5123,49 @@
         <v>10.49612241461459</v>
       </c>
       <c r="K12" t="n">
-        <v>140.3856372954701</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="L12" t="n">
-        <v>270.2751521763256</v>
+        <v>115.2217060411543</v>
       </c>
       <c r="M12" t="n">
-        <v>375.0007358028653</v>
+        <v>245.1112209220098</v>
       </c>
       <c r="N12" t="n">
-        <v>394.9166058498739</v>
+        <v>265.0270909690183</v>
       </c>
       <c r="O12" t="n">
-        <v>394.9166058498739</v>
+        <v>394.9166058498738</v>
       </c>
       <c r="P12" t="n">
-        <v>394.9166058498739</v>
+        <v>394.9166058498738</v>
       </c>
       <c r="Q12" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="R12" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="S12" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="T12" t="n">
-        <v>392.2793225664038</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="U12" t="n">
+        <v>524.8061207307293</v>
+      </c>
+      <c r="V12" t="n">
+        <v>392.2793225664037</v>
+      </c>
+      <c r="W12" t="n">
         <v>259.7525244020782</v>
       </c>
-      <c r="V12" t="n">
-        <v>127.2257262377526</v>
-      </c>
-      <c r="W12" t="n">
-        <v>80.54311971621003</v>
-      </c>
       <c r="X12" t="n">
-        <v>80.54311971621003</v>
+        <v>250.7109994434082</v>
       </c>
       <c r="Y12" t="n">
-        <v>80.54311971621003</v>
+        <v>250.7109994434082</v>
       </c>
     </row>
     <row r="13">
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>346.54168497684</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="C13" t="n">
-        <v>214.0148868125144</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="D13" t="n">
-        <v>81.48808864818881</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="E13" t="n">
-        <v>81.48808864818881</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="F13" t="n">
         <v>10.49612241461459</v>
@@ -5202,7 +5202,7 @@
         <v>10.49612241461459</v>
       </c>
       <c r="K13" t="n">
-        <v>44.60440993881295</v>
+        <v>44.60440993881291</v>
       </c>
       <c r="L13" t="n">
         <v>143.7777095003619</v>
@@ -5211,40 +5211,40 @@
         <v>258.73117185987</v>
       </c>
       <c r="N13" t="n">
-        <v>376.3859142399439</v>
+        <v>376.3859142399438</v>
       </c>
       <c r="O13" t="n">
-        <v>469.0428162853264</v>
+        <v>469.0428162853262</v>
       </c>
       <c r="P13" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="Q13" t="n">
-        <v>479.0684831411656</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="R13" t="n">
-        <v>479.0684831411656</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="S13" t="n">
-        <v>479.0684831411656</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="T13" t="n">
-        <v>479.0684831411656</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="U13" t="n">
-        <v>479.0684831411656</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="V13" t="n">
-        <v>479.0684831411656</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="W13" t="n">
-        <v>346.54168497684</v>
+        <v>392.2793225664037</v>
       </c>
       <c r="X13" t="n">
-        <v>346.54168497684</v>
+        <v>275.5497187432658</v>
       </c>
       <c r="Y13" t="n">
-        <v>346.54168497684</v>
+        <v>143.0229205789402</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>275.5497187432658</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="C14" t="n">
-        <v>275.5497187432658</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="D14" t="n">
-        <v>275.5497187432658</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="E14" t="n">
-        <v>275.5497187432658</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="F14" t="n">
-        <v>143.0229205789402</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="G14" t="n">
-        <v>143.0229205789402</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="H14" t="n">
         <v>10.49612241461459</v>
@@ -5281,49 +5281,49 @@
         <v>10.49612241461459</v>
       </c>
       <c r="K14" t="n">
-        <v>140.3856372954701</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="L14" t="n">
         <v>140.3856372954701</v>
       </c>
       <c r="M14" t="n">
-        <v>158.5579427033263</v>
+        <v>140.3856372954701</v>
       </c>
       <c r="N14" t="n">
-        <v>288.4474575841818</v>
+        <v>270.2751521763256</v>
       </c>
       <c r="O14" t="n">
-        <v>288.4474575841818</v>
+        <v>400.1646670571811</v>
       </c>
       <c r="P14" t="n">
-        <v>418.3369724650373</v>
+        <v>418.3369724650372</v>
       </c>
       <c r="Q14" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="R14" t="n">
-        <v>442.483176413294</v>
+        <v>442.4831764132938</v>
       </c>
       <c r="S14" t="n">
-        <v>309.9563782489683</v>
+        <v>309.9563782489682</v>
       </c>
       <c r="T14" t="n">
-        <v>275.5497187432658</v>
+        <v>309.9563782489682</v>
       </c>
       <c r="U14" t="n">
         <v>275.5497187432658</v>
       </c>
       <c r="V14" t="n">
-        <v>275.5497187432658</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="W14" t="n">
-        <v>275.5497187432658</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="X14" t="n">
-        <v>275.5497187432658</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="Y14" t="n">
-        <v>275.5497187432658</v>
+        <v>10.49612241461459</v>
       </c>
     </row>
     <row r="15">
@@ -5333,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>275.5497187432658</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="C15" t="n">
-        <v>143.0229205789402</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="D15" t="n">
-        <v>143.0229205789402</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="E15" t="n">
         <v>10.49612241461459</v>
@@ -5357,52 +5357,52 @@
         <v>10.49612241461459</v>
       </c>
       <c r="J15" t="n">
+        <v>64.22582882795403</v>
+      </c>
+      <c r="K15" t="n">
+        <v>194.1153437088095</v>
+      </c>
+      <c r="L15" t="n">
+        <v>194.1153437088095</v>
+      </c>
+      <c r="M15" t="n">
+        <v>199.4805673353961</v>
+      </c>
+      <c r="N15" t="n">
+        <v>265.0270909690183</v>
+      </c>
+      <c r="O15" t="n">
+        <v>394.9166058498738</v>
+      </c>
+      <c r="P15" t="n">
+        <v>394.9166058498738</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>524.8061207307293</v>
+      </c>
+      <c r="R15" t="n">
+        <v>460.1584073784823</v>
+      </c>
+      <c r="S15" t="n">
+        <v>460.1584073784823</v>
+      </c>
+      <c r="T15" t="n">
+        <v>460.1584073784823</v>
+      </c>
+      <c r="U15" t="n">
+        <v>327.6316092141567</v>
+      </c>
+      <c r="V15" t="n">
+        <v>195.1048110498311</v>
+      </c>
+      <c r="W15" t="n">
+        <v>62.57801288550553</v>
+      </c>
+      <c r="X15" t="n">
         <v>10.49612241461459</v>
       </c>
-      <c r="K15" t="n">
+      <c r="Y15" t="n">
         <v>10.49612241461459</v>
-      </c>
-      <c r="L15" t="n">
-        <v>10.49612241461459</v>
-      </c>
-      <c r="M15" t="n">
-        <v>140.3856372954701</v>
-      </c>
-      <c r="N15" t="n">
-        <v>270.2751521763256</v>
-      </c>
-      <c r="O15" t="n">
-        <v>400.1646670571811</v>
-      </c>
-      <c r="P15" t="n">
-        <v>400.1646670571811</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>524.8061207307294</v>
-      </c>
-      <c r="R15" t="n">
-        <v>524.8061207307294</v>
-      </c>
-      <c r="S15" t="n">
-        <v>524.8061207307294</v>
-      </c>
-      <c r="T15" t="n">
-        <v>408.0765169075914</v>
-      </c>
-      <c r="U15" t="n">
-        <v>408.0765169075914</v>
-      </c>
-      <c r="V15" t="n">
-        <v>408.0765169075914</v>
-      </c>
-      <c r="W15" t="n">
-        <v>408.0765169075914</v>
-      </c>
-      <c r="X15" t="n">
-        <v>408.0765169075914</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>275.5497187432658</v>
       </c>
     </row>
     <row r="16">
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10.49612241461459</v>
+        <v>127.2257262377526</v>
       </c>
       <c r="C16" t="n">
-        <v>10.49612241461459</v>
+        <v>127.2257262377526</v>
       </c>
       <c r="D16" t="n">
         <v>10.49612241461459</v>
@@ -5439,7 +5439,7 @@
         <v>10.49612241461459</v>
       </c>
       <c r="K16" t="n">
-        <v>44.60440993881292</v>
+        <v>44.60440993881294</v>
       </c>
       <c r="L16" t="n">
         <v>143.7777095003619</v>
@@ -5448,40 +5448,40 @@
         <v>258.73117185987</v>
       </c>
       <c r="N16" t="n">
-        <v>376.3859142399439</v>
+        <v>376.3859142399438</v>
       </c>
       <c r="O16" t="n">
-        <v>469.0428162853264</v>
+        <v>469.0428162853262</v>
       </c>
       <c r="P16" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="Q16" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="R16" t="n">
-        <v>408.0765169075914</v>
+        <v>392.2793225664037</v>
       </c>
       <c r="S16" t="n">
-        <v>275.5497187432658</v>
+        <v>392.2793225664037</v>
       </c>
       <c r="T16" t="n">
-        <v>143.0229205789402</v>
+        <v>392.2793225664037</v>
       </c>
       <c r="U16" t="n">
-        <v>143.0229205789402</v>
+        <v>392.2793225664037</v>
       </c>
       <c r="V16" t="n">
-        <v>10.49612241461459</v>
+        <v>392.2793225664037</v>
       </c>
       <c r="W16" t="n">
-        <v>10.49612241461459</v>
+        <v>392.2793225664037</v>
       </c>
       <c r="X16" t="n">
-        <v>10.49612241461459</v>
+        <v>392.2793225664037</v>
       </c>
       <c r="Y16" t="n">
-        <v>10.49612241461459</v>
+        <v>259.7525244020782</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>408.0765169075914</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="C17" t="n">
-        <v>275.5497187432658</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="D17" t="n">
-        <v>275.5497187432658</v>
+        <v>408.0765169075913</v>
       </c>
       <c r="E17" t="n">
         <v>275.5497187432658</v>
@@ -5506,61 +5506,61 @@
         <v>143.0229205789402</v>
       </c>
       <c r="G17" t="n">
-        <v>143.0229205789402</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="H17" t="n">
-        <v>143.0229205789402</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="I17" t="n">
         <v>10.49612241461459</v>
       </c>
       <c r="J17" t="n">
-        <v>90.11941249266594</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0089273735215</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="L17" t="n">
-        <v>349.898442254377</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="M17" t="n">
-        <v>479.7879571352325</v>
+        <v>28.66842782247073</v>
       </c>
       <c r="N17" t="n">
-        <v>524.8061207307294</v>
+        <v>158.5579427033262</v>
       </c>
       <c r="O17" t="n">
-        <v>524.8061207307294</v>
+        <v>288.4474575841817</v>
       </c>
       <c r="P17" t="n">
-        <v>524.8061207307294</v>
+        <v>418.3369724650372</v>
       </c>
       <c r="Q17" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="R17" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="S17" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="T17" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="U17" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="V17" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="W17" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="X17" t="n">
-        <v>408.0765169075914</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="Y17" t="n">
-        <v>408.0765169075914</v>
+        <v>524.8061207307293</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>10.49612241461459</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="C18" t="n">
-        <v>10.49612241461459</v>
+        <v>213.0699178805356</v>
       </c>
       <c r="D18" t="n">
-        <v>10.49612241461459</v>
+        <v>213.0699178805356</v>
       </c>
       <c r="E18" t="n">
-        <v>10.49612241461459</v>
+        <v>80.54311971621003</v>
       </c>
       <c r="F18" t="n">
-        <v>10.49612241461459</v>
+        <v>80.54311971621003</v>
       </c>
       <c r="G18" t="n">
-        <v>10.49612241461459</v>
+        <v>80.54311971621003</v>
       </c>
       <c r="H18" t="n">
-        <v>10.49612241461459</v>
+        <v>80.54311971621003</v>
       </c>
       <c r="I18" t="n">
         <v>10.49612241461459</v>
@@ -5600,46 +5600,46 @@
         <v>10.49612241461459</v>
       </c>
       <c r="L18" t="n">
-        <v>10.49612241461459</v>
+        <v>140.3856372954701</v>
       </c>
       <c r="M18" t="n">
-        <v>15.86134604120116</v>
+        <v>145.7508609220566</v>
       </c>
       <c r="N18" t="n">
-        <v>145.7508609220567</v>
+        <v>265.0270909690183</v>
       </c>
       <c r="O18" t="n">
-        <v>275.6403758029122</v>
+        <v>394.9166058498738</v>
       </c>
       <c r="P18" t="n">
-        <v>394.9166058498739</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="Q18" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="R18" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="S18" t="n">
-        <v>408.0765169075914</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="T18" t="n">
-        <v>408.0765169075914</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="U18" t="n">
-        <v>408.0765169075914</v>
+        <v>392.2793225664037</v>
       </c>
       <c r="V18" t="n">
-        <v>275.5497187432658</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="W18" t="n">
-        <v>143.0229205789402</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="X18" t="n">
-        <v>143.0229205789402</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="Y18" t="n">
-        <v>143.0229205789402</v>
+        <v>259.7525244020782</v>
       </c>
     </row>
     <row r="19">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10.49612241461459</v>
+        <v>275.5497187432658</v>
       </c>
       <c r="C19" t="n">
-        <v>10.49612241461459</v>
+        <v>275.5497187432658</v>
       </c>
       <c r="D19" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="E19" t="n">
-        <v>10.49612241461459</v>
+        <v>143.0229205789402</v>
       </c>
       <c r="F19" t="n">
         <v>10.49612241461459</v>
@@ -5676,7 +5676,7 @@
         <v>10.49612241461459</v>
       </c>
       <c r="K19" t="n">
-        <v>44.60440993881292</v>
+        <v>44.60440993881294</v>
       </c>
       <c r="L19" t="n">
         <v>143.7777095003619</v>
@@ -5685,40 +5685,40 @@
         <v>258.73117185987</v>
       </c>
       <c r="N19" t="n">
-        <v>376.3859142399439</v>
+        <v>376.3859142399438</v>
       </c>
       <c r="O19" t="n">
-        <v>469.0428162853264</v>
+        <v>469.0428162853262</v>
       </c>
       <c r="P19" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="Q19" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="R19" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="S19" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="T19" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="U19" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="V19" t="n">
-        <v>392.2793225664038</v>
+        <v>408.0765169075913</v>
       </c>
       <c r="W19" t="n">
-        <v>259.7525244020782</v>
+        <v>275.5497187432658</v>
       </c>
       <c r="X19" t="n">
-        <v>127.2257262377526</v>
+        <v>275.5497187432658</v>
       </c>
       <c r="Y19" t="n">
-        <v>127.2257262377526</v>
+        <v>275.5497187432658</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>143.0229205789402</v>
+        <v>127.2257262377526</v>
       </c>
       <c r="C20" t="n">
-        <v>143.0229205789402</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="D20" t="n">
-        <v>143.0229205789402</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="E20" t="n">
-        <v>143.0229205789402</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="F20" t="n">
-        <v>143.0229205789402</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="G20" t="n">
-        <v>143.0229205789402</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="H20" t="n">
-        <v>143.0229205789402</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="I20" t="n">
         <v>10.49612241461459</v>
       </c>
       <c r="J20" t="n">
-        <v>90.11941249266594</v>
+        <v>90.11941249266593</v>
       </c>
       <c r="K20" t="n">
-        <v>220.0089273735215</v>
+        <v>90.11941249266593</v>
       </c>
       <c r="L20" t="n">
-        <v>349.898442254377</v>
+        <v>90.11941249266593</v>
       </c>
       <c r="M20" t="n">
-        <v>479.7879571352325</v>
+        <v>220.0089273735214</v>
       </c>
       <c r="N20" t="n">
-        <v>524.8061207307294</v>
+        <v>220.0089273735214</v>
       </c>
       <c r="O20" t="n">
-        <v>524.8061207307294</v>
+        <v>288.4474575841817</v>
       </c>
       <c r="P20" t="n">
-        <v>524.8061207307294</v>
+        <v>418.3369724650372</v>
       </c>
       <c r="Q20" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="R20" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="S20" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="T20" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="U20" t="n">
-        <v>408.0765169075914</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="V20" t="n">
-        <v>408.0765169075914</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="W20" t="n">
-        <v>275.5497187432658</v>
+        <v>392.2793225664037</v>
       </c>
       <c r="X20" t="n">
-        <v>275.5497187432658</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="Y20" t="n">
-        <v>143.0229205789402</v>
+        <v>259.7525244020782</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>392.2793225664038</v>
+        <v>80.54311971621003</v>
       </c>
       <c r="C21" t="n">
-        <v>259.7525244020782</v>
+        <v>80.54311971621003</v>
       </c>
       <c r="D21" t="n">
-        <v>143.0229205789402</v>
+        <v>80.54311971621003</v>
       </c>
       <c r="E21" t="n">
-        <v>143.0229205789402</v>
+        <v>80.54311971621003</v>
       </c>
       <c r="F21" t="n">
-        <v>10.49612241461459</v>
+        <v>80.54311971621003</v>
       </c>
       <c r="G21" t="n">
-        <v>10.49612241461459</v>
+        <v>80.54311971621003</v>
       </c>
       <c r="H21" t="n">
-        <v>10.49612241461459</v>
+        <v>80.54311971621003</v>
       </c>
       <c r="I21" t="n">
         <v>10.49612241461459</v>
@@ -5837,46 +5837,46 @@
         <v>64.22582882795403</v>
       </c>
       <c r="L21" t="n">
-        <v>194.1153437088096</v>
+        <v>194.1153437088095</v>
       </c>
       <c r="M21" t="n">
-        <v>199.4805673353962</v>
+        <v>199.4805673353961</v>
       </c>
       <c r="N21" t="n">
+        <v>219.3964373824046</v>
+      </c>
+      <c r="O21" t="n">
         <v>265.0270909690183</v>
       </c>
-      <c r="O21" t="n">
-        <v>394.9166058498739</v>
-      </c>
       <c r="P21" t="n">
-        <v>524.8061207307294</v>
+        <v>394.9166058498738</v>
       </c>
       <c r="Q21" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="R21" t="n">
-        <v>524.8061207307294</v>
+        <v>460.1584073784823</v>
       </c>
       <c r="S21" t="n">
-        <v>524.8061207307294</v>
+        <v>460.1584073784823</v>
       </c>
       <c r="T21" t="n">
-        <v>524.8061207307294</v>
+        <v>460.1584073784823</v>
       </c>
       <c r="U21" t="n">
-        <v>524.8061207307294</v>
+        <v>345.5967160448612</v>
       </c>
       <c r="V21" t="n">
-        <v>524.8061207307294</v>
+        <v>213.0699178805356</v>
       </c>
       <c r="W21" t="n">
-        <v>392.2793225664038</v>
+        <v>80.54311971621003</v>
       </c>
       <c r="X21" t="n">
-        <v>392.2793225664038</v>
+        <v>80.54311971621003</v>
       </c>
       <c r="Y21" t="n">
-        <v>392.2793225664038</v>
+        <v>80.54311971621003</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>524.8061207307294</v>
+        <v>127.2257262377526</v>
       </c>
       <c r="C22" t="n">
-        <v>524.8061207307294</v>
+        <v>127.2257262377526</v>
       </c>
       <c r="D22" t="n">
-        <v>392.2793225664038</v>
+        <v>127.2257262377526</v>
       </c>
       <c r="E22" t="n">
-        <v>259.7525244020782</v>
+        <v>127.2257262377526</v>
       </c>
       <c r="F22" t="n">
-        <v>259.7525244020782</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="G22" t="n">
-        <v>143.0229205789402</v>
+        <v>10.49612241461459</v>
       </c>
       <c r="H22" t="n">
         <v>10.49612241461459</v>
@@ -5913,7 +5913,7 @@
         <v>10.49612241461459</v>
       </c>
       <c r="K22" t="n">
-        <v>44.60440993881295</v>
+        <v>44.60440993881286</v>
       </c>
       <c r="L22" t="n">
         <v>143.7777095003619</v>
@@ -5922,40 +5922,40 @@
         <v>258.73117185987</v>
       </c>
       <c r="N22" t="n">
-        <v>376.3859142399439</v>
+        <v>376.3859142399438</v>
       </c>
       <c r="O22" t="n">
-        <v>469.0428162853264</v>
+        <v>469.0428162853262</v>
       </c>
       <c r="P22" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="Q22" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="R22" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="S22" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="T22" t="n">
-        <v>524.8061207307294</v>
+        <v>524.8061207307293</v>
       </c>
       <c r="U22" t="n">
-        <v>524.8061207307294</v>
+        <v>392.2793225664037</v>
       </c>
       <c r="V22" t="n">
-        <v>524.8061207307294</v>
+        <v>392.2793225664037</v>
       </c>
       <c r="W22" t="n">
-        <v>524.8061207307294</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="X22" t="n">
-        <v>524.8061207307294</v>
+        <v>259.7525244020782</v>
       </c>
       <c r="Y22" t="n">
-        <v>524.8061207307294</v>
+        <v>127.2257262377526</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1237.120023916067</v>
+        <v>1269.816087069784</v>
       </c>
       <c r="C23" t="n">
-        <v>1237.120023916067</v>
+        <v>1269.816087069784</v>
       </c>
       <c r="D23" t="n">
-        <v>1237.120023916067</v>
+        <v>1269.816087069784</v>
       </c>
       <c r="E23" t="n">
-        <v>1237.120023916067</v>
+        <v>1269.816087069784</v>
       </c>
       <c r="F23" t="n">
-        <v>826.1341191264592</v>
+        <v>858.8301822801766</v>
       </c>
       <c r="G23" t="n">
-        <v>407.7358015649452</v>
+        <v>440.4318647186627</v>
       </c>
       <c r="H23" t="n">
-        <v>76.09116159678757</v>
+        <v>108.787224750505</v>
       </c>
       <c r="I23" t="n">
         <v>43.99876135909523</v>
       </c>
       <c r="J23" t="n">
-        <v>123.6220514371463</v>
+        <v>123.6220514371466</v>
       </c>
       <c r="K23" t="n">
-        <v>363.7015273031525</v>
+        <v>363.7015273031528</v>
       </c>
       <c r="L23" t="n">
-        <v>713.8179739365962</v>
+        <v>713.8179739365964</v>
       </c>
       <c r="M23" t="n">
         <v>1119.996526506346</v>
       </c>
       <c r="N23" t="n">
-        <v>1518.115475157463</v>
+        <v>1518.115475157464</v>
       </c>
       <c r="O23" t="n">
         <v>1848.86027121381</v>
@@ -6013,28 +6013,28 @@
         <v>2199.938067954761</v>
       </c>
       <c r="R23" t="n">
-        <v>2199.938067954761</v>
+        <v>2117.615123637326</v>
       </c>
       <c r="S23" t="n">
-        <v>2013.859195956</v>
+        <v>2117.615123637326</v>
       </c>
       <c r="T23" t="n">
-        <v>2013.859195956</v>
+        <v>1897.078391449548</v>
       </c>
       <c r="U23" t="n">
-        <v>2013.859195956</v>
+        <v>1643.281845330864</v>
       </c>
       <c r="V23" t="n">
-        <v>2013.859195956</v>
+        <v>1643.281845330864</v>
       </c>
       <c r="W23" t="n">
-        <v>2013.859195956</v>
+        <v>1643.281845330864</v>
       </c>
       <c r="X23" t="n">
-        <v>2013.859195956</v>
+        <v>1269.816087069784</v>
       </c>
       <c r="Y23" t="n">
-        <v>1623.719863980188</v>
+        <v>1269.816087069784</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>764.4146060951994</v>
+        <v>704.4450241481684</v>
       </c>
       <c r="C24" t="n">
-        <v>589.9615768140724</v>
+        <v>636.84778010932</v>
       </c>
       <c r="D24" t="n">
-        <v>441.0271671528211</v>
+        <v>487.9133704480687</v>
       </c>
       <c r="E24" t="n">
-        <v>281.7897121473656</v>
+        <v>328.6759154426132</v>
       </c>
       <c r="F24" t="n">
-        <v>135.2551541742506</v>
+        <v>182.1413574694982</v>
       </c>
       <c r="G24" t="n">
-        <v>135.2551541742506</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="H24" t="n">
         <v>43.99876135909523</v>
@@ -6068,16 +6068,16 @@
         <v>43.99876135909523</v>
       </c>
       <c r="J24" t="n">
-        <v>97.72846777243467</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="K24" t="n">
-        <v>316.1819370893671</v>
+        <v>262.4522306760276</v>
       </c>
       <c r="L24" t="n">
-        <v>671.3239817053463</v>
+        <v>617.5942752920068</v>
       </c>
       <c r="M24" t="n">
-        <v>1137.737218444433</v>
+        <v>883.8287447033342</v>
       </c>
       <c r="N24" t="n">
         <v>1378.293565350461</v>
@@ -6101,19 +6101,19 @@
         <v>1837.631207045698</v>
       </c>
       <c r="U24" t="n">
-        <v>1837.631207045698</v>
+        <v>1609.446288078599</v>
       </c>
       <c r="V24" t="n">
-        <v>1602.479098813956</v>
+        <v>1374.294179846857</v>
       </c>
       <c r="W24" t="n">
-        <v>1348.241742085754</v>
+        <v>1120.056823118655</v>
       </c>
       <c r="X24" t="n">
-        <v>1140.390241880221</v>
+        <v>912.2053229131222</v>
       </c>
       <c r="Y24" t="n">
-        <v>932.6299431152675</v>
+        <v>704.4450241481684</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>340.6236567348681</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="C25" t="n">
-        <v>340.6236567348681</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="D25" t="n">
-        <v>340.6236567348681</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="E25" t="n">
-        <v>340.6236567348681</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="F25" t="n">
-        <v>340.6236567348681</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="G25" t="n">
-        <v>340.6236567348681</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="H25" t="n">
-        <v>245.625404373555</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="I25" t="n">
-        <v>103.4351389384873</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="J25" t="n">
         <v>43.99876135909523</v>
@@ -6174,25 +6174,25 @@
         <v>558.30875967521</v>
       </c>
       <c r="S25" t="n">
-        <v>340.6236567348681</v>
+        <v>558.30875967521</v>
       </c>
       <c r="T25" t="n">
-        <v>340.6236567348681</v>
+        <v>330.1677922256598</v>
       </c>
       <c r="U25" t="n">
-        <v>340.6236567348681</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="V25" t="n">
-        <v>340.6236567348681</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="W25" t="n">
-        <v>340.6236567348681</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="X25" t="n">
-        <v>340.6236567348681</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="Y25" t="n">
-        <v>340.6236567348681</v>
+        <v>43.99876135909523</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1157.015229504502</v>
+        <v>1357.549525312124</v>
       </c>
       <c r="C26" t="n">
-        <v>788.0527125640899</v>
+        <v>1357.549525312124</v>
       </c>
       <c r="D26" t="n">
-        <v>429.7870139573395</v>
+        <v>999.2838267053737</v>
       </c>
       <c r="E26" t="n">
-        <v>43.99876135909523</v>
+        <v>613.4955741071294</v>
       </c>
       <c r="F26" t="n">
-        <v>43.99876135909523</v>
+        <v>202.5096693175219</v>
       </c>
       <c r="G26" t="n">
         <v>43.99876135909523</v>
@@ -6232,10 +6232,10 @@
         <v>363.7015273031528</v>
       </c>
       <c r="L26" t="n">
-        <v>713.8179739365962</v>
+        <v>713.8179739365964</v>
       </c>
       <c r="M26" t="n">
-        <v>1119.996526506346</v>
+        <v>1119.996526506345</v>
       </c>
       <c r="N26" t="n">
         <v>1518.115475157463</v>
@@ -6253,25 +6253,25 @@
         <v>2117.615123637326</v>
       </c>
       <c r="S26" t="n">
-        <v>1931.536251638565</v>
+        <v>2117.615123637326</v>
       </c>
       <c r="T26" t="n">
-        <v>1931.536251638565</v>
+        <v>2117.615123637326</v>
       </c>
       <c r="U26" t="n">
-        <v>1931.536251638565</v>
+        <v>2117.615123637326</v>
       </c>
       <c r="V26" t="n">
-        <v>1931.536251638565</v>
+        <v>2117.615123637326</v>
       </c>
       <c r="W26" t="n">
-        <v>1931.536251638565</v>
+        <v>2117.615123637326</v>
       </c>
       <c r="X26" t="n">
-        <v>1931.536251638565</v>
+        <v>1744.149365376246</v>
       </c>
       <c r="Y26" t="n">
-        <v>1543.615069568623</v>
+        <v>1744.149365376246</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>610.8170235882083</v>
+        <v>555.4243218117412</v>
       </c>
       <c r="C27" t="n">
-        <v>436.3639943070813</v>
+        <v>380.9712925306142</v>
       </c>
       <c r="D27" t="n">
-        <v>436.3639943070813</v>
+        <v>380.9712925306142</v>
       </c>
       <c r="E27" t="n">
-        <v>436.3639943070813</v>
+        <v>221.7338375251587</v>
       </c>
       <c r="F27" t="n">
-        <v>289.8294363339663</v>
+        <v>221.7338375251587</v>
       </c>
       <c r="G27" t="n">
-        <v>151.6868402235633</v>
+        <v>221.7338375251587</v>
       </c>
       <c r="H27" t="n">
-        <v>43.99876135909523</v>
+        <v>114.0457586606907</v>
       </c>
       <c r="I27" t="n">
         <v>43.99876135909523</v>
@@ -6308,49 +6308,49 @@
         <v>43.99876135909523</v>
       </c>
       <c r="K27" t="n">
-        <v>62.27346334826848</v>
+        <v>262.4522306760276</v>
       </c>
       <c r="L27" t="n">
-        <v>417.4155079642478</v>
+        <v>560.4027911177354</v>
       </c>
       <c r="M27" t="n">
-        <v>883.8287447033342</v>
+        <v>1026.816027856822</v>
       </c>
       <c r="N27" t="n">
-        <v>1378.293565350461</v>
+        <v>1521.280848503948</v>
       </c>
       <c r="O27" t="n">
-        <v>1764.216596447708</v>
+        <v>1907.203879601196</v>
       </c>
       <c r="P27" t="n">
-        <v>2056.950784801274</v>
+        <v>2199.938067954761</v>
       </c>
       <c r="Q27" t="n">
         <v>2199.938067954761</v>
       </c>
       <c r="R27" t="n">
-        <v>2135.290354602514</v>
+        <v>2199.938067954761</v>
       </c>
       <c r="S27" t="n">
-        <v>1972.799111435054</v>
+        <v>2037.446824787301</v>
       </c>
       <c r="T27" t="n">
-        <v>1772.983493693451</v>
+        <v>1837.631207045698</v>
       </c>
       <c r="U27" t="n">
-        <v>1684.033624538707</v>
+        <v>1609.446288078599</v>
       </c>
       <c r="V27" t="n">
-        <v>1448.881516306965</v>
+        <v>1374.294179846857</v>
       </c>
       <c r="W27" t="n">
-        <v>1194.644159578763</v>
+        <v>1120.056823118655</v>
       </c>
       <c r="X27" t="n">
-        <v>986.7926593732302</v>
+        <v>912.2053229131222</v>
       </c>
       <c r="Y27" t="n">
-        <v>779.0323606082763</v>
+        <v>704.4450241481684</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>268.8915896382494</v>
+        <v>483.1956137044091</v>
       </c>
       <c r="C28" t="n">
-        <v>268.8915896382494</v>
+        <v>483.1956137044091</v>
       </c>
       <c r="D28" t="n">
-        <v>268.8915896382494</v>
+        <v>333.0789742920733</v>
       </c>
       <c r="E28" t="n">
-        <v>120.9784960558563</v>
+        <v>333.0789742920733</v>
       </c>
       <c r="F28" t="n">
-        <v>43.99876135909523</v>
+        <v>186.189026794163</v>
       </c>
       <c r="G28" t="n">
-        <v>43.99876135909523</v>
+        <v>186.189026794163</v>
       </c>
       <c r="H28" t="n">
-        <v>43.99876135909523</v>
+        <v>186.189026794163</v>
       </c>
       <c r="I28" t="n">
         <v>43.99876135909523</v>
@@ -6420,16 +6420,16 @@
         <v>558.30875967521</v>
       </c>
       <c r="V28" t="n">
-        <v>558.30875967521</v>
+        <v>483.1956137044091</v>
       </c>
       <c r="W28" t="n">
-        <v>268.8915896382494</v>
+        <v>483.1956137044091</v>
       </c>
       <c r="X28" t="n">
-        <v>268.8915896382494</v>
+        <v>483.1956137044091</v>
       </c>
       <c r="Y28" t="n">
-        <v>268.8915896382494</v>
+        <v>483.1956137044091</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>973.2110599152302</v>
+        <v>1538.095670093762</v>
       </c>
       <c r="C29" t="n">
-        <v>604.2485429748185</v>
+        <v>1538.095670093762</v>
       </c>
       <c r="D29" t="n">
-        <v>245.982844368068</v>
+        <v>1179.829971487011</v>
       </c>
       <c r="E29" t="n">
-        <v>43.99876135909523</v>
+        <v>794.0417188887668</v>
       </c>
       <c r="F29" t="n">
-        <v>43.99876135909523</v>
+        <v>794.0417188887668</v>
       </c>
       <c r="G29" t="n">
-        <v>43.99876135909523</v>
+        <v>375.6434013272529</v>
       </c>
       <c r="H29" t="n">
         <v>43.99876135909523</v>
@@ -6463,10 +6463,10 @@
         <v>43.99876135909523</v>
       </c>
       <c r="J29" t="n">
-        <v>123.6220514371466</v>
+        <v>123.6220514371465</v>
       </c>
       <c r="K29" t="n">
-        <v>363.7015273031529</v>
+        <v>363.7015273031528</v>
       </c>
       <c r="L29" t="n">
         <v>713.8179739365964</v>
@@ -6475,7 +6475,7 @@
         <v>1119.996526506346</v>
       </c>
       <c r="N29" t="n">
-        <v>1518.115475157464</v>
+        <v>1518.115475157463</v>
       </c>
       <c r="O29" t="n">
         <v>1848.86027121381</v>
@@ -6484,31 +6484,31 @@
         <v>2093.468919689069</v>
       </c>
       <c r="Q29" t="n">
-        <v>2199.938067954762</v>
+        <v>2199.938067954761</v>
       </c>
       <c r="R29" t="n">
-        <v>2117.615123637326</v>
+        <v>2199.938067954761</v>
       </c>
       <c r="S29" t="n">
-        <v>1931.536251638565</v>
+        <v>2199.938067954761</v>
       </c>
       <c r="T29" t="n">
-        <v>1931.536251638565</v>
+        <v>2178.492056276568</v>
       </c>
       <c r="U29" t="n">
-        <v>1677.739705519881</v>
+        <v>1924.695510157883</v>
       </c>
       <c r="V29" t="n">
-        <v>1346.67681817631</v>
+        <v>1924.695510157883</v>
       </c>
       <c r="W29" t="n">
-        <v>1346.67681817631</v>
+        <v>1924.695510157883</v>
       </c>
       <c r="X29" t="n">
-        <v>973.2110599152302</v>
+        <v>1924.695510157883</v>
       </c>
       <c r="Y29" t="n">
-        <v>973.2110599152302</v>
+        <v>1924.695510157883</v>
       </c>
     </row>
     <row r="30">
@@ -6518,31 +6518,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>634.073216943314</v>
+        <v>725.8193305040547</v>
       </c>
       <c r="C30" t="n">
-        <v>459.620187662187</v>
+        <v>551.3663012229277</v>
       </c>
       <c r="D30" t="n">
-        <v>310.6857780009358</v>
+        <v>402.4318915616765</v>
       </c>
       <c r="E30" t="n">
-        <v>310.6857780009358</v>
+        <v>243.194436556221</v>
       </c>
       <c r="F30" t="n">
-        <v>310.6857780009358</v>
+        <v>96.65987858310595</v>
       </c>
       <c r="G30" t="n">
-        <v>172.5431818905328</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="H30" t="n">
-        <v>64.85510302606474</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="I30" t="n">
         <v>43.99876135909523</v>
       </c>
       <c r="J30" t="n">
-        <v>97.72846777243468</v>
+        <v>97.72846777243467</v>
       </c>
       <c r="K30" t="n">
         <v>316.1819370893671</v>
@@ -6554,40 +6554,40 @@
         <v>1137.737218444433</v>
       </c>
       <c r="N30" t="n">
-        <v>1521.280848503949</v>
+        <v>1378.293565350461</v>
       </c>
       <c r="O30" t="n">
-        <v>1907.203879601196</v>
+        <v>1764.216596447708</v>
       </c>
       <c r="P30" t="n">
-        <v>2199.938067954762</v>
+        <v>2056.950784801274</v>
       </c>
       <c r="Q30" t="n">
-        <v>2199.938067954762</v>
+        <v>2199.938067954761</v>
       </c>
       <c r="R30" t="n">
-        <v>2135.290354602515</v>
+        <v>2135.290354602514</v>
       </c>
       <c r="S30" t="n">
-        <v>2135.290354602515</v>
+        <v>1972.799111435054</v>
       </c>
       <c r="T30" t="n">
-        <v>1935.474736860912</v>
+        <v>1772.983493693451</v>
       </c>
       <c r="U30" t="n">
-        <v>1707.289817893813</v>
+        <v>1544.798574726352</v>
       </c>
       <c r="V30" t="n">
-        <v>1472.13770966207</v>
+        <v>1309.64646649461</v>
       </c>
       <c r="W30" t="n">
-        <v>1217.900352933869</v>
+        <v>1309.64646649461</v>
       </c>
       <c r="X30" t="n">
-        <v>1010.048852728336</v>
+        <v>1101.794966289077</v>
       </c>
       <c r="Y30" t="n">
-        <v>802.2885539633821</v>
+        <v>894.0346675241228</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>268.8915896382494</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="C31" t="n">
-        <v>268.8915896382494</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="D31" t="n">
-        <v>268.8915896382494</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="E31" t="n">
-        <v>268.8915896382494</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="F31" t="n">
-        <v>122.001642140339</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="G31" t="n">
         <v>43.99876135909523</v>
@@ -6657,16 +6657,16 @@
         <v>558.30875967521</v>
       </c>
       <c r="V31" t="n">
-        <v>558.30875967521</v>
+        <v>303.6242714693232</v>
       </c>
       <c r="W31" t="n">
-        <v>268.8915896382494</v>
+        <v>303.6242714693232</v>
       </c>
       <c r="X31" t="n">
-        <v>268.8915896382494</v>
+        <v>75.63472057130582</v>
       </c>
       <c r="Y31" t="n">
-        <v>268.8915896382494</v>
+        <v>43.99876135909523</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>429.7870139573395</v>
+        <v>1339.004949584178</v>
       </c>
       <c r="C32" t="n">
-        <v>429.7870139573395</v>
+        <v>1172.417558715105</v>
       </c>
       <c r="D32" t="n">
-        <v>429.7870139573395</v>
+        <v>1172.417558715105</v>
       </c>
       <c r="E32" t="n">
-        <v>43.99876135909523</v>
+        <v>786.6293061168604</v>
       </c>
       <c r="F32" t="n">
-        <v>43.99876135909523</v>
+        <v>375.6434013272529</v>
       </c>
       <c r="G32" t="n">
-        <v>43.99876135909523</v>
+        <v>375.6434013272529</v>
       </c>
       <c r="H32" t="n">
         <v>43.99876135909523</v>
@@ -6700,7 +6700,7 @@
         <v>43.99876135909523</v>
       </c>
       <c r="J32" t="n">
-        <v>123.6220514371465</v>
+        <v>123.6220514371466</v>
       </c>
       <c r="K32" t="n">
         <v>363.7015273031528</v>
@@ -6712,7 +6712,7 @@
         <v>1119.996526506346</v>
       </c>
       <c r="N32" t="n">
-        <v>1518.115475157463</v>
+        <v>1518.115475157464</v>
       </c>
       <c r="O32" t="n">
         <v>1848.86027121381</v>
@@ -6724,28 +6724,28 @@
         <v>2199.938067954761</v>
       </c>
       <c r="R32" t="n">
-        <v>2117.615123637326</v>
+        <v>2199.938067954761</v>
       </c>
       <c r="S32" t="n">
-        <v>1961.417593138566</v>
+        <v>2199.938067954761</v>
       </c>
       <c r="T32" t="n">
-        <v>1740.880860950789</v>
+        <v>1979.401335766984</v>
       </c>
       <c r="U32" t="n">
-        <v>1487.084314832104</v>
+        <v>1725.604789648299</v>
       </c>
       <c r="V32" t="n">
-        <v>1156.021427488533</v>
+        <v>1725.604789648299</v>
       </c>
       <c r="W32" t="n">
-        <v>803.2527722184193</v>
+        <v>1725.604789648299</v>
       </c>
       <c r="X32" t="n">
-        <v>429.7870139573395</v>
+        <v>1725.604789648299</v>
       </c>
       <c r="Y32" t="n">
-        <v>429.7870139573395</v>
+        <v>1725.604789648299</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>842.5013275833954</v>
+        <v>673.158213280044</v>
       </c>
       <c r="C33" t="n">
-        <v>668.0482983022684</v>
+        <v>498.7051839989171</v>
       </c>
       <c r="D33" t="n">
-        <v>519.1138886410172</v>
+        <v>349.7707743376658</v>
       </c>
       <c r="E33" t="n">
-        <v>359.8764336355617</v>
+        <v>190.5333193322103</v>
       </c>
       <c r="F33" t="n">
-        <v>359.8764336355617</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="G33" t="n">
-        <v>221.7338375251587</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="H33" t="n">
-        <v>114.0457586606907</v>
+        <v>43.99876135909523</v>
       </c>
       <c r="I33" t="n">
         <v>43.99876135909523</v>
@@ -6788,7 +6788,7 @@
         <v>671.3239817053463</v>
       </c>
       <c r="M33" t="n">
-        <v>1137.737218444433</v>
+        <v>883.8287447033342</v>
       </c>
       <c r="N33" t="n">
         <v>1378.293565350461</v>
@@ -6803,28 +6803,28 @@
         <v>2199.938067954761</v>
       </c>
       <c r="R33" t="n">
-        <v>2199.938067954761</v>
+        <v>2135.290354602514</v>
       </c>
       <c r="S33" t="n">
-        <v>2143.902847500993</v>
+        <v>2135.290354602514</v>
       </c>
       <c r="T33" t="n">
-        <v>2143.902847500993</v>
+        <v>1935.474736860912</v>
       </c>
       <c r="U33" t="n">
-        <v>1915.717928533894</v>
+        <v>1707.289817893813</v>
       </c>
       <c r="V33" t="n">
-        <v>1680.565820302152</v>
+        <v>1472.13770966207</v>
       </c>
       <c r="W33" t="n">
-        <v>1426.32846357395</v>
+        <v>1217.900352933868</v>
       </c>
       <c r="X33" t="n">
-        <v>1218.476963368417</v>
+        <v>1010.048852728336</v>
       </c>
       <c r="Y33" t="n">
-        <v>1010.716664603463</v>
+        <v>841.3735503001121</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>43.99876135909523</v>
+        <v>330.1677922256598</v>
       </c>
       <c r="C34" t="n">
-        <v>43.99876135909523</v>
+        <v>330.1677922256598</v>
       </c>
       <c r="D34" t="n">
-        <v>43.99876135909523</v>
+        <v>330.1677922256598</v>
       </c>
       <c r="E34" t="n">
-        <v>43.99876135909523</v>
+        <v>330.1677922256598</v>
       </c>
       <c r="F34" t="n">
-        <v>43.99876135909523</v>
+        <v>183.2778447277495</v>
       </c>
       <c r="G34" t="n">
         <v>43.99876135909523</v>
@@ -6882,28 +6882,28 @@
         <v>558.30875967521</v>
       </c>
       <c r="R34" t="n">
-        <v>401.398419270289</v>
+        <v>558.30875967521</v>
       </c>
       <c r="S34" t="n">
-        <v>333.4159313960558</v>
+        <v>558.30875967521</v>
       </c>
       <c r="T34" t="n">
-        <v>333.4159313960558</v>
+        <v>330.1677922256598</v>
       </c>
       <c r="U34" t="n">
-        <v>333.4159313960558</v>
+        <v>330.1677922256598</v>
       </c>
       <c r="V34" t="n">
-        <v>333.4159313960558</v>
+        <v>330.1677922256598</v>
       </c>
       <c r="W34" t="n">
-        <v>43.99876135909523</v>
+        <v>330.1677922256598</v>
       </c>
       <c r="X34" t="n">
-        <v>43.99876135909523</v>
+        <v>330.1677922256598</v>
       </c>
       <c r="Y34" t="n">
-        <v>43.99876135909523</v>
+        <v>330.1677922256598</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1580.319753862004</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="C35" t="n">
-        <v>1580.319753862004</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="D35" t="n">
-        <v>1580.319753862004</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="E35" t="n">
-        <v>1194.53150126376</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="F35" t="n">
-        <v>783.5455964741523</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="G35" t="n">
-        <v>365.1472789126383</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="H35" t="n">
         <v>33.50263894448064</v>
@@ -6937,52 +6937,52 @@
         <v>33.50263894448064</v>
       </c>
       <c r="J35" t="n">
-        <v>33.50263894448064</v>
+        <v>113.125929022532</v>
       </c>
       <c r="K35" t="n">
-        <v>33.50263894448064</v>
+        <v>353.2054048885382</v>
       </c>
       <c r="L35" t="n">
-        <v>383.6190855779243</v>
+        <v>703.3218515219819</v>
       </c>
       <c r="M35" t="n">
-        <v>789.7976381476738</v>
+        <v>703.3218515219819</v>
       </c>
       <c r="N35" t="n">
-        <v>1187.916586798792</v>
+        <v>993.3093544267341</v>
       </c>
       <c r="O35" t="n">
-        <v>1518.661382855138</v>
+        <v>1324.054150483081</v>
       </c>
       <c r="P35" t="n">
-        <v>1675.131947224032</v>
+        <v>1568.66279895834</v>
       </c>
       <c r="Q35" t="n">
         <v>1675.131947224032</v>
       </c>
       <c r="R35" t="n">
-        <v>1675.131947224032</v>
+        <v>1592.809002906597</v>
       </c>
       <c r="S35" t="n">
-        <v>1675.131947224032</v>
+        <v>1406.730130907835</v>
       </c>
       <c r="T35" t="n">
-        <v>1580.319753862004</v>
+        <v>1186.193398720058</v>
       </c>
       <c r="U35" t="n">
-        <v>1580.319753862004</v>
+        <v>932.3968526013738</v>
       </c>
       <c r="V35" t="n">
-        <v>1580.319753862004</v>
+        <v>932.3968526013738</v>
       </c>
       <c r="W35" t="n">
-        <v>1580.319753862004</v>
+        <v>579.6281973312596</v>
       </c>
       <c r="X35" t="n">
-        <v>1580.319753862004</v>
+        <v>206.1624390701797</v>
       </c>
       <c r="Y35" t="n">
-        <v>1580.319753862004</v>
+        <v>33.50263894448064</v>
       </c>
     </row>
     <row r="36">
@@ -6992,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>662.6620908654295</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="C36" t="n">
-        <v>488.2090615843024</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="D36" t="n">
-        <v>339.2746519230512</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="E36" t="n">
-        <v>180.0371969175957</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="F36" t="n">
         <v>33.50263894448064</v>
@@ -7016,25 +7016,25 @@
         <v>33.50263894448064</v>
       </c>
       <c r="J36" t="n">
-        <v>33.50263894448064</v>
+        <v>87.23234535782009</v>
       </c>
       <c r="K36" t="n">
-        <v>251.9561082614131</v>
+        <v>305.6858146747525</v>
       </c>
       <c r="L36" t="n">
-        <v>317.0313190974011</v>
+        <v>660.8278592907318</v>
       </c>
       <c r="M36" t="n">
-        <v>731.626476035349</v>
+        <v>833.5715745727233</v>
       </c>
       <c r="N36" t="n">
-        <v>1146.221632973297</v>
+        <v>853.4874446197318</v>
       </c>
       <c r="O36" t="n">
-        <v>1532.144664070544</v>
+        <v>1239.410475716979</v>
       </c>
       <c r="P36" t="n">
-        <v>1532.144664070544</v>
+        <v>1532.144664070545</v>
       </c>
       <c r="Q36" t="n">
         <v>1675.131947224032</v>
@@ -7043,25 +7043,25 @@
         <v>1610.484233871785</v>
       </c>
       <c r="S36" t="n">
-        <v>1500.726583584186</v>
+        <v>1447.992990704324</v>
       </c>
       <c r="T36" t="n">
-        <v>1500.726583584186</v>
+        <v>1334.904158862079</v>
       </c>
       <c r="U36" t="n">
-        <v>1500.726583584186</v>
+        <v>1106.71923989498</v>
       </c>
       <c r="V36" t="n">
-        <v>1500.726583584186</v>
+        <v>871.567131663237</v>
       </c>
       <c r="W36" t="n">
-        <v>1246.489226855984</v>
+        <v>617.3297749350354</v>
       </c>
       <c r="X36" t="n">
-        <v>1038.637726650451</v>
+        <v>409.4782747295026</v>
       </c>
       <c r="Y36" t="n">
-        <v>830.8774278854976</v>
+        <v>201.7179759645487</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>349.3287693702979</v>
+        <v>362.1786091535101</v>
       </c>
       <c r="C37" t="n">
-        <v>180.392586442391</v>
+        <v>362.1786091535101</v>
       </c>
       <c r="D37" t="n">
-        <v>180.392586442391</v>
+        <v>362.1786091535101</v>
       </c>
       <c r="E37" t="n">
-        <v>180.392586442391</v>
+        <v>362.1786091535101</v>
       </c>
       <c r="F37" t="n">
-        <v>33.50263894448064</v>
+        <v>362.1786091535101</v>
       </c>
       <c r="G37" t="n">
-        <v>33.50263894448064</v>
+        <v>192.9839029067432</v>
       </c>
       <c r="H37" t="n">
         <v>33.50263894448064</v>
@@ -7098,7 +7098,7 @@
         <v>33.50263894448064</v>
       </c>
       <c r="K37" t="n">
-        <v>67.61092646867903</v>
+        <v>67.61092646867904</v>
       </c>
       <c r="L37" t="n">
         <v>166.784226030228</v>
@@ -7122,25 +7122,25 @@
         <v>547.8126372605955</v>
       </c>
       <c r="S37" t="n">
-        <v>547.8126372605955</v>
+        <v>362.1786091535101</v>
       </c>
       <c r="T37" t="n">
-        <v>547.8126372605955</v>
+        <v>362.1786091535101</v>
       </c>
       <c r="U37" t="n">
-        <v>547.8126372605955</v>
+        <v>362.1786091535101</v>
       </c>
       <c r="V37" t="n">
-        <v>547.8126372605955</v>
+        <v>362.1786091535101</v>
       </c>
       <c r="W37" t="n">
-        <v>547.8126372605955</v>
+        <v>362.1786091535101</v>
       </c>
       <c r="X37" t="n">
-        <v>349.3287693702979</v>
+        <v>362.1786091535101</v>
       </c>
       <c r="Y37" t="n">
-        <v>349.3287693702979</v>
+        <v>362.1786091535101</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1200.79866891757</v>
+        <v>731.875884536013</v>
       </c>
       <c r="C38" t="n">
-        <v>1200.79866891757</v>
+        <v>731.875884536013</v>
       </c>
       <c r="D38" t="n">
-        <v>1200.79866891757</v>
+        <v>731.875884536013</v>
       </c>
       <c r="E38" t="n">
-        <v>1194.53150126376</v>
+        <v>535.3646808626627</v>
       </c>
       <c r="F38" t="n">
-        <v>783.5455964741523</v>
+        <v>535.3646808626627</v>
       </c>
       <c r="G38" t="n">
-        <v>365.1472789126383</v>
+        <v>535.3646808626627</v>
       </c>
       <c r="H38" t="n">
-        <v>33.50263894448064</v>
+        <v>203.720040894505</v>
       </c>
       <c r="I38" t="n">
         <v>33.50263894448064</v>
       </c>
       <c r="J38" t="n">
-        <v>33.50263894448064</v>
+        <v>113.125929022532</v>
       </c>
       <c r="K38" t="n">
-        <v>273.5821148104869</v>
+        <v>353.2054048885382</v>
       </c>
       <c r="L38" t="n">
-        <v>623.6985614439305</v>
+        <v>595.1904057756165</v>
       </c>
       <c r="M38" t="n">
-        <v>1029.87711401368</v>
+        <v>595.1904057756165</v>
       </c>
       <c r="N38" t="n">
-        <v>1427.996062664798</v>
+        <v>993.3093544267341</v>
       </c>
       <c r="O38" t="n">
-        <v>1675.131947224032</v>
+        <v>1324.054150483081</v>
       </c>
       <c r="P38" t="n">
-        <v>1675.131947224032</v>
+        <v>1568.66279895834</v>
       </c>
       <c r="Q38" t="n">
         <v>1675.131947224032</v>
       </c>
       <c r="R38" t="n">
-        <v>1675.131947224032</v>
+        <v>1592.809002906597</v>
       </c>
       <c r="S38" t="n">
-        <v>1675.131947224032</v>
+        <v>1592.809002906597</v>
       </c>
       <c r="T38" t="n">
-        <v>1454.595215036255</v>
+        <v>1372.272270718819</v>
       </c>
       <c r="U38" t="n">
-        <v>1200.79866891757</v>
+        <v>1118.475724600135</v>
       </c>
       <c r="V38" t="n">
-        <v>1200.79866891757</v>
+        <v>1118.475724600135</v>
       </c>
       <c r="W38" t="n">
-        <v>1200.79866891757</v>
+        <v>1118.475724600135</v>
       </c>
       <c r="X38" t="n">
-        <v>1200.79866891757</v>
+        <v>1118.475724600135</v>
       </c>
       <c r="Y38" t="n">
-        <v>1200.79866891757</v>
+        <v>1118.475724600135</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>320.5796447161349</v>
+        <v>369.2285467933936</v>
       </c>
       <c r="C39" t="n">
-        <v>320.5796447161349</v>
+        <v>369.2285467933936</v>
       </c>
       <c r="D39" t="n">
-        <v>171.6452350548836</v>
+        <v>220.2941371321423</v>
       </c>
       <c r="E39" t="n">
-        <v>171.6452350548836</v>
+        <v>220.2941371321423</v>
       </c>
       <c r="F39" t="n">
-        <v>171.6452350548836</v>
+        <v>73.75957915902731</v>
       </c>
       <c r="G39" t="n">
         <v>33.50263894448064</v>
@@ -7262,13 +7262,13 @@
         <v>388.6446835604599</v>
       </c>
       <c r="M39" t="n">
-        <v>803.2398404984078</v>
+        <v>581.8795708352714</v>
       </c>
       <c r="N39" t="n">
-        <v>1217.834997436356</v>
+        <v>996.4747277732192</v>
       </c>
       <c r="O39" t="n">
-        <v>1603.758028533603</v>
+        <v>1382.397758870467</v>
       </c>
       <c r="P39" t="n">
         <v>1675.131947224032</v>
@@ -7277,28 +7277,28 @@
         <v>1675.131947224032</v>
       </c>
       <c r="R39" t="n">
-        <v>1675.131947224032</v>
+        <v>1610.484233871785</v>
       </c>
       <c r="S39" t="n">
-        <v>1675.131947224032</v>
+        <v>1447.992990704324</v>
       </c>
       <c r="T39" t="n">
-        <v>1621.981164633733</v>
+        <v>1248.177372962722</v>
       </c>
       <c r="U39" t="n">
-        <v>1393.796245666634</v>
+        <v>1019.992453995623</v>
       </c>
       <c r="V39" t="n">
-        <v>1158.644137434891</v>
+        <v>784.8403457638804</v>
       </c>
       <c r="W39" t="n">
-        <v>904.4067807066897</v>
+        <v>784.8403457638804</v>
       </c>
       <c r="X39" t="n">
-        <v>696.5552805011569</v>
+        <v>576.9888455583475</v>
       </c>
       <c r="Y39" t="n">
-        <v>488.7949817362029</v>
+        <v>369.2285467933936</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>202.6973451912476</v>
+        <v>319.8230863625781</v>
       </c>
       <c r="C40" t="n">
-        <v>202.6973451912476</v>
+        <v>319.8230863625781</v>
       </c>
       <c r="D40" t="n">
-        <v>202.6973451912476</v>
+        <v>169.7064469502424</v>
       </c>
       <c r="E40" t="n">
-        <v>202.6973451912476</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="F40" t="n">
-        <v>202.6973451912476</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="G40" t="n">
         <v>33.50263894448064</v>
@@ -7335,7 +7335,7 @@
         <v>33.50263894448064</v>
       </c>
       <c r="K40" t="n">
-        <v>67.61092646867903</v>
+        <v>67.61092646867904</v>
       </c>
       <c r="L40" t="n">
         <v>166.784226030228</v>
@@ -7359,25 +7359,25 @@
         <v>547.8126372605955</v>
       </c>
       <c r="S40" t="n">
-        <v>457.3818333971345</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="T40" t="n">
-        <v>457.3818333971345</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="U40" t="n">
-        <v>457.3818333971345</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="V40" t="n">
-        <v>202.6973451912476</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="W40" t="n">
-        <v>202.6973451912476</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="X40" t="n">
-        <v>202.6973451912476</v>
+        <v>319.8230863625781</v>
       </c>
       <c r="Y40" t="n">
-        <v>202.6973451912476</v>
+        <v>319.8230863625781</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>845.1171971307745</v>
+        <v>862.8868612956021</v>
       </c>
       <c r="C41" t="n">
-        <v>845.1171971307745</v>
+        <v>862.8868612956021</v>
       </c>
       <c r="D41" t="n">
-        <v>845.1171971307745</v>
+        <v>862.8868612956021</v>
       </c>
       <c r="E41" t="n">
-        <v>459.3289445325302</v>
+        <v>862.8868612956021</v>
       </c>
       <c r="F41" t="n">
-        <v>48.34303974292266</v>
+        <v>451.9009565059945</v>
       </c>
       <c r="G41" t="n">
         <v>33.50263894448064</v>
@@ -7411,22 +7411,22 @@
         <v>33.50263894448064</v>
       </c>
       <c r="J41" t="n">
-        <v>113.125929022532</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="K41" t="n">
-        <v>351.5431074078647</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="L41" t="n">
-        <v>701.6595540413084</v>
+        <v>383.6190855779243</v>
       </c>
       <c r="M41" t="n">
-        <v>701.6595540413084</v>
+        <v>789.7976381476738</v>
       </c>
       <c r="N41" t="n">
-        <v>1099.778502692426</v>
+        <v>1187.916586798792</v>
       </c>
       <c r="O41" t="n">
-        <v>1430.523298748773</v>
+        <v>1518.661382855138</v>
       </c>
       <c r="P41" t="n">
         <v>1675.131947224032</v>
@@ -7444,19 +7444,19 @@
         <v>1489.053075225271</v>
       </c>
       <c r="U41" t="n">
-        <v>1235.256529106586</v>
+        <v>1236.352619556682</v>
       </c>
       <c r="V41" t="n">
-        <v>1235.256529106586</v>
+        <v>1236.352619556682</v>
       </c>
       <c r="W41" t="n">
-        <v>1235.256529106586</v>
+        <v>1236.352619556682</v>
       </c>
       <c r="X41" t="n">
-        <v>1235.256529106586</v>
+        <v>862.8868612956021</v>
       </c>
       <c r="Y41" t="n">
-        <v>845.1171971307745</v>
+        <v>862.8868612956021</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>342.1301465848994</v>
+        <v>908.4927658403004</v>
       </c>
       <c r="C42" t="n">
-        <v>342.1301465848994</v>
+        <v>734.0397365591734</v>
       </c>
       <c r="D42" t="n">
-        <v>342.1301465848994</v>
+        <v>585.1053268979222</v>
       </c>
       <c r="E42" t="n">
-        <v>342.1301465848994</v>
+        <v>425.8678718924667</v>
       </c>
       <c r="F42" t="n">
-        <v>195.5955886117843</v>
+        <v>279.3333139193517</v>
       </c>
       <c r="G42" t="n">
-        <v>57.45299250138132</v>
+        <v>141.1907178089487</v>
       </c>
       <c r="H42" t="n">
         <v>33.50263894448064</v>
@@ -7499,10 +7499,10 @@
         <v>607.0981528773923</v>
       </c>
       <c r="M42" t="n">
-        <v>976.5588577262105</v>
+        <v>612.4633765039789</v>
       </c>
       <c r="N42" t="n">
-        <v>996.474727773219</v>
+        <v>1027.058533441927</v>
       </c>
       <c r="O42" t="n">
         <v>1382.397758870467</v>
@@ -7520,22 +7520,22 @@
         <v>1675.131947224032</v>
       </c>
       <c r="T42" t="n">
-        <v>1475.316329482429</v>
+        <v>1475.31632948243</v>
       </c>
       <c r="U42" t="n">
-        <v>1247.13141051533</v>
+        <v>1475.31632948243</v>
       </c>
       <c r="V42" t="n">
-        <v>1011.979302283588</v>
+        <v>1475.31632948243</v>
       </c>
       <c r="W42" t="n">
-        <v>757.7419455553861</v>
+        <v>1475.31632948243</v>
       </c>
       <c r="X42" t="n">
-        <v>549.8904453498533</v>
+        <v>1284.468401625322</v>
       </c>
       <c r="Y42" t="n">
-        <v>342.1301465848994</v>
+        <v>1076.708102860368</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>497.5003862715511</v>
+        <v>362.1786091535101</v>
       </c>
       <c r="C43" t="n">
-        <v>497.5003862715511</v>
+        <v>362.1786091535101</v>
       </c>
       <c r="D43" t="n">
-        <v>497.5003862715511</v>
+        <v>362.1786091535101</v>
       </c>
       <c r="E43" t="n">
-        <v>349.5872926891579</v>
+        <v>362.1786091535101</v>
       </c>
       <c r="F43" t="n">
-        <v>202.6973451912476</v>
+        <v>362.1786091535101</v>
       </c>
       <c r="G43" t="n">
-        <v>33.50263894448064</v>
+        <v>192.9839029067432</v>
       </c>
       <c r="H43" t="n">
         <v>33.50263894448064</v>
@@ -7572,7 +7572,7 @@
         <v>33.50263894448064</v>
       </c>
       <c r="K43" t="n">
-        <v>67.61092646867903</v>
+        <v>67.61092646867904</v>
       </c>
       <c r="L43" t="n">
         <v>166.784226030228</v>
@@ -7596,25 +7596,25 @@
         <v>547.8126372605955</v>
       </c>
       <c r="S43" t="n">
-        <v>497.5003862715511</v>
+        <v>547.8126372605955</v>
       </c>
       <c r="T43" t="n">
-        <v>497.5003862715511</v>
+        <v>362.1786091535101</v>
       </c>
       <c r="U43" t="n">
-        <v>497.5003862715511</v>
+        <v>362.1786091535101</v>
       </c>
       <c r="V43" t="n">
-        <v>497.5003862715511</v>
+        <v>362.1786091535101</v>
       </c>
       <c r="W43" t="n">
-        <v>497.5003862715511</v>
+        <v>362.1786091535101</v>
       </c>
       <c r="X43" t="n">
-        <v>497.5003862715511</v>
+        <v>362.1786091535101</v>
       </c>
       <c r="Y43" t="n">
-        <v>497.5003862715511</v>
+        <v>362.1786091535101</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>783.5455964741523</v>
+        <v>545.6241199139845</v>
       </c>
       <c r="C44" t="n">
-        <v>783.5455964741523</v>
+        <v>176.6616029735728</v>
       </c>
       <c r="D44" t="n">
-        <v>783.5455964741523</v>
+        <v>176.6616029735728</v>
       </c>
       <c r="E44" t="n">
-        <v>783.5455964741523</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="F44" t="n">
-        <v>783.5455964741523</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="G44" t="n">
-        <v>365.1472789126383</v>
+        <v>33.50263894448064</v>
       </c>
       <c r="H44" t="n">
         <v>33.50263894448064</v>
@@ -7660,10 +7660,10 @@
         <v>1109.500404091731</v>
       </c>
       <c r="N44" t="n">
-        <v>1109.500404091731</v>
+        <v>1507.619352742849</v>
       </c>
       <c r="O44" t="n">
-        <v>1430.523298748773</v>
+        <v>1675.131947224032</v>
       </c>
       <c r="P44" t="n">
         <v>1675.131947224032</v>
@@ -7681,19 +7681,19 @@
         <v>1675.131947224032</v>
       </c>
       <c r="U44" t="n">
-        <v>1421.335401105347</v>
+        <v>1675.131947224032</v>
       </c>
       <c r="V44" t="n">
-        <v>1421.335401105347</v>
+        <v>1675.131947224032</v>
       </c>
       <c r="W44" t="n">
-        <v>1068.566745835233</v>
+        <v>1322.363291953918</v>
       </c>
       <c r="X44" t="n">
-        <v>1068.566745835233</v>
+        <v>1322.363291953918</v>
       </c>
       <c r="Y44" t="n">
-        <v>1068.566745835233</v>
+        <v>932.2239599781062</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>33.50263894448064</v>
+        <v>342.1301465848996</v>
       </c>
       <c r="C45" t="n">
-        <v>33.50263894448064</v>
+        <v>167.6771173037726</v>
       </c>
       <c r="D45" t="n">
-        <v>33.50263894448064</v>
+        <v>167.6771173037726</v>
       </c>
       <c r="E45" t="n">
-        <v>33.50263894448064</v>
+        <v>167.6771173037726</v>
       </c>
       <c r="F45" t="n">
-        <v>33.50263894448064</v>
+        <v>167.6771173037726</v>
       </c>
       <c r="G45" t="n">
         <v>33.50263894448064</v>
@@ -7730,22 +7730,22 @@
         <v>33.50263894448064</v>
       </c>
       <c r="K45" t="n">
-        <v>33.50263894448064</v>
+        <v>251.9561082614131</v>
       </c>
       <c r="L45" t="n">
-        <v>388.6446835604599</v>
+        <v>607.0981528773923</v>
       </c>
       <c r="M45" t="n">
-        <v>803.2398404984078</v>
+        <v>612.4633765039789</v>
       </c>
       <c r="N45" t="n">
-        <v>1217.834997436356</v>
+        <v>853.4874446197318</v>
       </c>
       <c r="O45" t="n">
-        <v>1603.758028533603</v>
+        <v>1239.410475716979</v>
       </c>
       <c r="P45" t="n">
-        <v>1675.131947224032</v>
+        <v>1532.144664070545</v>
       </c>
       <c r="Q45" t="n">
         <v>1675.131947224032</v>
@@ -7754,25 +7754,25 @@
         <v>1675.131947224032</v>
       </c>
       <c r="S45" t="n">
-        <v>1512.640704056571</v>
+        <v>1675.131947224032</v>
       </c>
       <c r="T45" t="n">
-        <v>1312.825086314969</v>
+        <v>1475.31632948243</v>
       </c>
       <c r="U45" t="n">
-        <v>1106.71923989498</v>
+        <v>1247.131410515331</v>
       </c>
       <c r="V45" t="n">
-        <v>871.567131663237</v>
+        <v>1011.979302283588</v>
       </c>
       <c r="W45" t="n">
-        <v>617.3297749350354</v>
+        <v>757.7419455553863</v>
       </c>
       <c r="X45" t="n">
-        <v>409.4782747295026</v>
+        <v>549.8904453498535</v>
       </c>
       <c r="Y45" t="n">
-        <v>201.7179759645487</v>
+        <v>342.1301465848996</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>33.50263894448064</v>
+        <v>319.6716698110453</v>
       </c>
       <c r="C46" t="n">
-        <v>33.50263894448064</v>
+        <v>319.6716698110453</v>
       </c>
       <c r="D46" t="n">
-        <v>33.50263894448064</v>
+        <v>319.6716698110453</v>
       </c>
       <c r="E46" t="n">
-        <v>33.50263894448064</v>
+        <v>319.6716698110453</v>
       </c>
       <c r="F46" t="n">
-        <v>33.50263894448064</v>
+        <v>172.7817223131349</v>
       </c>
       <c r="G46" t="n">
-        <v>33.50263894448064</v>
+        <v>172.7817223131349</v>
       </c>
       <c r="H46" t="n">
         <v>33.50263894448064</v>
@@ -7809,7 +7809,7 @@
         <v>33.50263894448064</v>
       </c>
       <c r="K46" t="n">
-        <v>67.61092646867903</v>
+        <v>67.61092646867904</v>
       </c>
       <c r="L46" t="n">
         <v>166.784226030228</v>
@@ -7836,22 +7836,22 @@
         <v>547.8126372605955</v>
       </c>
       <c r="T46" t="n">
-        <v>547.8126372605955</v>
+        <v>319.6716698110453</v>
       </c>
       <c r="U46" t="n">
-        <v>547.8126372605955</v>
+        <v>319.6716698110453</v>
       </c>
       <c r="V46" t="n">
-        <v>547.8126372605955</v>
+        <v>319.6716698110453</v>
       </c>
       <c r="W46" t="n">
-        <v>261.492189842498</v>
+        <v>319.6716698110453</v>
       </c>
       <c r="X46" t="n">
-        <v>33.50263894448064</v>
+        <v>319.6716698110453</v>
       </c>
       <c r="Y46" t="n">
-        <v>33.50263894448064</v>
+        <v>319.6716698110453</v>
       </c>
     </row>
   </sheetData>
@@ -8689,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>88.66904943666837</v>
       </c>
       <c r="K11" t="n">
-        <v>81.64089149439079</v>
+        <v>81.64089149439081</v>
       </c>
       <c r="L11" t="n">
-        <v>133.1380666486491</v>
+        <v>195.209768335715</v>
       </c>
       <c r="M11" t="n">
-        <v>170.4336974434447</v>
+        <v>57.58803130910198</v>
       </c>
       <c r="N11" t="n">
-        <v>166.4081024218203</v>
+        <v>166.4081024218204</v>
       </c>
       <c r="O11" t="n">
-        <v>46.71452868057705</v>
+        <v>177.9160588632594</v>
       </c>
       <c r="P11" t="n">
-        <v>74.71926526718059</v>
+        <v>74.71926526718062</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,25 +8771,25 @@
         <v>71.81860461986395</v>
       </c>
       <c r="K12" t="n">
-        <v>175.0066971781575</v>
+        <v>43.80516699547518</v>
       </c>
       <c r="L12" t="n">
-        <v>143.3125374902029</v>
+        <v>117.8944251121061</v>
       </c>
       <c r="M12" t="n">
-        <v>100.3639999999527</v>
+        <v>125.7821123780495</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>4.041075744156217</v>
+        <v>135.2426059268385</v>
       </c>
       <c r="P12" t="n">
-        <v>22.77166929290142</v>
+        <v>22.77166929290145</v>
       </c>
       <c r="Q12" t="n">
-        <v>196.8472187735946</v>
+        <v>196.8472187735947</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8926,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>88.66904943666836</v>
+        <v>88.66904943666837</v>
       </c>
       <c r="K14" t="n">
-        <v>212.8424216770731</v>
+        <v>81.64089149439081</v>
       </c>
       <c r="L14" t="n">
-        <v>64.00823815303261</v>
+        <v>195.209768335715</v>
       </c>
       <c r="M14" t="n">
-        <v>57.58803130910192</v>
+        <v>39.23216726076242</v>
       </c>
       <c r="N14" t="n">
         <v>166.4081024218203</v>
       </c>
       <c r="O14" t="n">
-        <v>46.71452868057705</v>
+        <v>177.9160588632594</v>
       </c>
       <c r="P14" t="n">
-        <v>205.9207954498629</v>
+        <v>93.07512931552014</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>71.81860461986395</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>43.80516699547515</v>
+        <v>175.0066971781575</v>
       </c>
       <c r="L15" t="n">
-        <v>12.11100730752052</v>
+        <v>12.11100730752055</v>
       </c>
       <c r="M15" t="n">
-        <v>125.7821123780494</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>111.0844897311586</v>
+        <v>46.09156927940784</v>
       </c>
       <c r="O15" t="n">
-        <v>135.2426059268386</v>
+        <v>135.2426059268385</v>
       </c>
       <c r="P15" t="n">
-        <v>22.77166929290142</v>
+        <v>22.77166929290145</v>
       </c>
       <c r="Q15" t="n">
-        <v>191.5461468470216</v>
+        <v>196.8472187735947</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>88.66904943666837</v>
       </c>
       <c r="K17" t="n">
-        <v>212.8424216770731</v>
+        <v>81.64089149439081</v>
       </c>
       <c r="L17" t="n">
-        <v>195.209768335715</v>
+        <v>64.00823815303264</v>
       </c>
       <c r="M17" t="n">
-        <v>170.4336974434447</v>
+        <v>57.58803130910196</v>
       </c>
       <c r="N17" t="n">
-        <v>80.67946475984184</v>
+        <v>166.4081024218204</v>
       </c>
       <c r="O17" t="n">
-        <v>46.71452868057705</v>
+        <v>177.9160588632594</v>
       </c>
       <c r="P17" t="n">
-        <v>74.71926526718059</v>
+        <v>205.920795449863</v>
       </c>
       <c r="Q17" t="n">
-        <v>104.7703964521349</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9245,25 +9245,25 @@
         <v>71.81860461986395</v>
       </c>
       <c r="K18" t="n">
-        <v>43.80516699547515</v>
+        <v>43.80516699547518</v>
       </c>
       <c r="L18" t="n">
-        <v>12.11100730752052</v>
+        <v>143.3125374902029</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>111.0844897311586</v>
+        <v>100.3639999999527</v>
       </c>
       <c r="O18" t="n">
-        <v>135.2426059268386</v>
+        <v>135.2426059268385</v>
       </c>
       <c r="P18" t="n">
-        <v>143.2527097443778</v>
+        <v>153.9731994755837</v>
       </c>
       <c r="Q18" t="n">
-        <v>196.8472187735946</v>
+        <v>65.64568859091233</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9403,25 +9403,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>212.8424216770731</v>
+        <v>81.64089149439081</v>
       </c>
       <c r="L20" t="n">
-        <v>195.209768335715</v>
+        <v>64.00823815303264</v>
       </c>
       <c r="M20" t="n">
         <v>170.4336974434447</v>
       </c>
       <c r="N20" t="n">
-        <v>80.67946475984184</v>
+        <v>35.20657223913801</v>
       </c>
       <c r="O20" t="n">
-        <v>46.71452868057705</v>
+        <v>115.8443571761936</v>
       </c>
       <c r="P20" t="n">
-        <v>74.71926526718059</v>
+        <v>205.920795449863</v>
       </c>
       <c r="Q20" t="n">
-        <v>104.7703964521349</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>43.80516699547515</v>
+        <v>43.80516699547518</v>
       </c>
       <c r="L21" t="n">
         <v>143.3125374902029</v>
@@ -9491,16 +9491,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>46.09156927940772</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>135.2426059268386</v>
+        <v>50.13264502356409</v>
       </c>
       <c r="P21" t="n">
-        <v>153.9731994755838</v>
+        <v>153.9731994755837</v>
       </c>
       <c r="Q21" t="n">
-        <v>65.64568859091231</v>
+        <v>196.8472187735947</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9658,7 +9658,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>71.81860461986395</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9725,10 +9725,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>263.5042886714554</v>
       </c>
       <c r="N24" t="n">
-        <v>222.8691685444641</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.513533492832</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9956,10 +9956,10 @@
         <v>71.81860461986395</v>
       </c>
       <c r="K27" t="n">
-        <v>62.26446193403399</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>313.0711693698516</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>65.64568859091231</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>367.3007676894016</v>
+        <v>222.8691685444641</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>65.64568859091231</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10436,10 +10436,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>209.2318579509104</v>
       </c>
       <c r="N33" t="n">
-        <v>222.8691685444641</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>88.66904943666836</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>81.64089149439079</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>39.23216726076237</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>328.1232418398978</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>232.7703403872753</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>104.7703964521349</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10664,25 +10664,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>71.81860461986395</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>77.84354350548826</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>413.363569001375</v>
+        <v>169.069183490308</v>
       </c>
       <c r="N36" t="n">
-        <v>398.6659463544842</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>22.77166929290142</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>88.66904943666836</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>308.4375319783642</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>39.23216726076237</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>296.346735306066</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>74.71926526718059</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>104.7703964521349</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10910,7 +10910,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>413.363569001375</v>
+        <v>189.767337018409</v>
       </c>
       <c r="N39" t="n">
         <v>398.6659463544842</v>
@@ -10919,7 +10919,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>94.86653665697069</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>65.64568859091231</v>
@@ -11059,16 +11059,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>88.66904943666836</v>
       </c>
       <c r="K41" t="n">
-        <v>322.4663242068481</v>
+        <v>81.64089149439079</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>39.23216726076237</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11077,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>232.7703403872755</v>
       </c>
       <c r="Q41" t="n">
         <v>104.7703964521349</v>
@@ -11147,13 +11147,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>367.7732133557895</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>398.6659463544843</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>362.969586278035</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11308,13 +11308,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>35.20657223913796</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>370.9800788392048</v>
+        <v>215.9191695706609</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>74.71926526718059</v>
       </c>
       <c r="Q44" t="n">
         <v>104.7703964521349</v>
@@ -11378,25 +11378,25 @@
         <v>71.81860461986395</v>
       </c>
       <c r="K45" t="n">
-        <v>43.80516699547515</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>413.363569001375</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>398.6659463544842</v>
+        <v>223.3416142108529</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>94.86653665697069</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>65.64568859091231</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23263,22 +23263,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>223.4815114380006</v>
       </c>
       <c r="E11" t="n">
-        <v>250.7288398895794</v>
+        <v>250.7288398895795</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>283.0128042032164</v>
+        <v>414.2143343858988</v>
       </c>
       <c r="H11" t="n">
         <v>328.3281935684761</v>
       </c>
       <c r="I11" t="n">
-        <v>168.5152279305241</v>
+        <v>134.4526350198787</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>184.2180832787735</v>
+        <v>53.01655309609123</v>
       </c>
       <c r="T11" t="n">
-        <v>184.268771955254</v>
+        <v>218.3313648658995</v>
       </c>
       <c r="U11" t="n">
         <v>251.2585806574976</v>
@@ -23323,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>238.5295704957867</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23351,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.761170149299</v>
+        <v>5.559639966616658</v>
       </c>
       <c r="H12" t="n">
-        <v>106.6111980758233</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>69.34652732857948</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23390,19 +23390,19 @@
         <v>160.8663307357858</v>
       </c>
       <c r="T12" t="n">
-        <v>66.61593138150411</v>
+        <v>197.8174615641865</v>
       </c>
       <c r="U12" t="n">
-        <v>94.70153959474564</v>
+        <v>225.903069777428</v>
       </c>
       <c r="V12" t="n">
         <v>101.5990569667429</v>
       </c>
       <c r="W12" t="n">
-        <v>205.4792027045925</v>
+        <v>120.4934529782373</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>196.8218754943942</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>48.63044999925498</v>
       </c>
       <c r="C13" t="n">
-        <v>36.04529091594549</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>17.41394283553001</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>75.13900145169278</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>167.5027591842993</v>
@@ -23439,7 +23439,7 @@
         <v>140.7683627807171</v>
       </c>
       <c r="J13" t="n">
-        <v>58.84201380359813</v>
+        <v>58.84201380359814</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>45.28026121366808</v>
       </c>
       <c r="R13" t="n">
         <v>155.3412370008718</v>
@@ -23481,10 +23481,10 @@
         <v>155.3214681539087</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>110.1473476041306</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>87.38312316941247</v>
       </c>
     </row>
     <row r="14">
@@ -23506,13 +23506,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>275.6745155590291</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>414.2143343858988</v>
       </c>
       <c r="H14" t="n">
-        <v>197.1266633857937</v>
+        <v>328.3281935684761</v>
       </c>
       <c r="I14" t="n">
         <v>168.5152279305241</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>53.0165530960912</v>
+        <v>53.01655309609123</v>
       </c>
       <c r="T14" t="n">
-        <v>184.268771955254</v>
+        <v>218.3313648658995</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2585806574976</v>
+        <v>217.1959877468522</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>196.5507282874526</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>218.0394385347307</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23576,13 +23576,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>41.50696880563339</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>26.4435502727186</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>64.00123621872456</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>160.8663307357858</v>
       </c>
       <c r="T15" t="n">
-        <v>82.25515377927984</v>
+        <v>197.8174615641865</v>
       </c>
       <c r="U15" t="n">
-        <v>225.903069777428</v>
+        <v>94.70153959474567</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>101.5990569667429</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>120.4934529782373</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>154.2119136372955</v>
       </c>
       <c r="Y15" t="n">
-        <v>74.48116559462201</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>48.63044999925498</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>33.05316523330575</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23676,7 +23676,7 @@
         <v>140.7683627807171</v>
       </c>
       <c r="J16" t="n">
-        <v>58.84201380359813</v>
+        <v>58.84201380359814</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>45.28026121366808</v>
       </c>
       <c r="R16" t="n">
-        <v>39.77892921596516</v>
+        <v>24.13970681818947</v>
       </c>
       <c r="S16" t="n">
-        <v>84.30672172825621</v>
+        <v>215.5082519109386</v>
       </c>
       <c r="T16" t="n">
-        <v>94.65802759237232</v>
+        <v>225.8595577750547</v>
       </c>
       <c r="U16" t="n">
         <v>286.2923991651731</v>
       </c>
       <c r="V16" t="n">
-        <v>120.9361131411457</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>87.38312316941247</v>
       </c>
     </row>
     <row r="17">
@@ -23734,25 +23734,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>234.0713615883252</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>239.1207338357764</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>250.7288398895795</v>
       </c>
       <c r="F17" t="n">
         <v>275.6745155590291</v>
       </c>
       <c r="G17" t="n">
-        <v>414.2143343858988</v>
+        <v>283.0128042032164</v>
       </c>
       <c r="H17" t="n">
         <v>328.3281935684761</v>
       </c>
       <c r="I17" t="n">
-        <v>37.31369774784179</v>
+        <v>168.5152279305241</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>81.49971487426106</v>
+        <v>81.49971487426107</v>
       </c>
       <c r="S17" t="n">
         <v>184.2180832787735</v>
@@ -23797,7 +23797,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>254.1687928935624</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23810,16 +23810,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>35.33165346718499</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>126.4927185319886</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>26.44355027271862</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23831,7 +23831,7 @@
         <v>106.6111980758233</v>
       </c>
       <c r="I18" t="n">
-        <v>69.34652732857948</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,19 +23861,19 @@
         <v>64.00123621872456</v>
       </c>
       <c r="S18" t="n">
-        <v>45.30402295087914</v>
+        <v>160.8663307357858</v>
       </c>
       <c r="T18" t="n">
         <v>197.8174615641865</v>
       </c>
       <c r="U18" t="n">
-        <v>225.903069777428</v>
+        <v>94.70153959474567</v>
       </c>
       <c r="V18" t="n">
         <v>101.5990569667429</v>
       </c>
       <c r="W18" t="n">
-        <v>120.4934529782373</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>64.26967239703072</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>17.41394283553004</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>14.21951784024893</v>
       </c>
       <c r="G19" t="n">
         <v>167.5027591842993</v>
@@ -23913,7 +23913,7 @@
         <v>140.7683627807171</v>
       </c>
       <c r="J19" t="n">
-        <v>58.84201380359813</v>
+        <v>58.84201380359814</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>286.2923991651731</v>
       </c>
       <c r="V19" t="n">
-        <v>120.9361131411457</v>
+        <v>136.5753355389214</v>
       </c>
       <c r="W19" t="n">
         <v>155.3214681539087</v>
       </c>
       <c r="X19" t="n">
-        <v>94.5081252063548</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>251.5323114807983</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>249.7105839861009</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23989,7 +23989,7 @@
         <v>328.3281935684761</v>
       </c>
       <c r="I20" t="n">
-        <v>37.31369774784179</v>
+        <v>168.5152279305241</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>81.49971487426106</v>
+        <v>81.49971487426107</v>
       </c>
       <c r="S20" t="n">
         <v>184.2180832787735</v>
@@ -24025,7 +24025,7 @@
         <v>218.3313648658995</v>
       </c>
       <c r="U20" t="n">
-        <v>135.696272872591</v>
+        <v>251.2585806574976</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24034,10 +24034,10 @@
         <v>218.0394385347307</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>238.5295704957867</v>
       </c>
       <c r="Y20" t="n">
-        <v>255.0364084733712</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24050,16 +24050,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>41.50696880563339</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>31.88275777973216</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>13.86768221070153</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>136.761170149299</v>
@@ -24068,7 +24068,7 @@
         <v>106.6111980758233</v>
       </c>
       <c r="I21" t="n">
-        <v>69.34652732857948</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>64.00123621872456</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>160.8663307357858</v>
@@ -24104,10 +24104,10 @@
         <v>197.8174615641865</v>
       </c>
       <c r="U21" t="n">
-        <v>225.903069777428</v>
+        <v>112.4869953571431</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>101.5990569667429</v>
       </c>
       <c r="W21" t="n">
         <v>120.4934529782373</v>
@@ -24132,25 +24132,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>17.41394283553001</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>15.23243246388682</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>29.85874023802464</v>
       </c>
       <c r="G22" t="n">
-        <v>51.9404513993927</v>
+        <v>167.5027591842993</v>
       </c>
       <c r="H22" t="n">
-        <v>26.68492113995757</v>
+        <v>157.8864513226399</v>
       </c>
       <c r="I22" t="n">
         <v>140.7683627807171</v>
       </c>
       <c r="J22" t="n">
-        <v>58.84201380359813</v>
+        <v>58.84201380359814</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24183,19 +24183,19 @@
         <v>225.8595577750547</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2923991651731</v>
+        <v>155.0908689824908</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>155.3214681539087</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>87.38312316941247</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>136.7437516952087</v>
+        <v>104.3746491730285</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>81.49971487426106</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>184.2180832787735</v>
       </c>
       <c r="T23" t="n">
-        <v>218.3313648658995</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2585806574976</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24271,10 +24271,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24284,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>105.7872273898558</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24299,10 +24299,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>136.761170149299</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>16.26736918881954</v>
+        <v>106.6111980758233</v>
       </c>
       <c r="I24" t="n">
         <v>69.34652732857948</v>
@@ -24341,7 +24341,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.903069777428</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24381,13 +24381,13 @@
         <v>167.5027591842993</v>
       </c>
       <c r="H25" t="n">
-        <v>63.83818148494001</v>
+        <v>157.8864513226399</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>140.7683627807171</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>58.84201380359813</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24414,13 +24414,13 @@
         <v>155.3412370008718</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>215.5082519109386</v>
       </c>
       <c r="T25" t="n">
-        <v>225.8595577750547</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2923991651731</v>
+        <v>2.985058607274198</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24454,10 +24454,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>414.2143343858988</v>
+        <v>257.2885355070564</v>
       </c>
       <c r="H26" t="n">
         <v>328.3281935684761</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>184.2180832787735</v>
       </c>
       <c r="T26" t="n">
         <v>218.3313648658995</v>
@@ -24508,10 +24508,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>2.195968406811687</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>19.0026883368044</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -24530,19 +24530,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.761170149299</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>69.34652732857948</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>64.00123621872456</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24578,7 +24578,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>137.8426993142315</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>69.21111067313781</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.5027591842993</v>
@@ -24621,7 +24621,7 @@
         <v>157.8864513226399</v>
       </c>
       <c r="I28" t="n">
-        <v>140.7683627807171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>58.84201380359813</v>
@@ -24660,10 +24660,10 @@
         <v>286.2923991651731</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>177.7756288127351</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>181.9661278933787</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.2143343858988</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>328.3281935684761</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>168.5152279305241</v>
@@ -24727,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>81.49971487426106</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>184.2180832787735</v>
       </c>
       <c r="T29" t="n">
-        <v>218.3313648658995</v>
+        <v>197.0998133044881</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24767,19 +24767,19 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>84.62666409752836</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>106.6111980758233</v>
       </c>
       <c r="I30" t="n">
-        <v>48.69874907827968</v>
+        <v>69.34652732857948</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24809,7 +24809,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>160.8663307357858</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24821,7 +24821,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24849,10 +24849,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>90.27990721086792</v>
+        <v>167.5027591842993</v>
       </c>
       <c r="H31" t="n">
         <v>157.8864513226399</v>
@@ -24897,16 +24897,16 @@
         <v>286.2923991651731</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>187.2650537320063</v>
       </c>
     </row>
     <row r="32">
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>200.3513748106253</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24928,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>414.2143343858988</v>
       </c>
       <c r="H32" t="n">
-        <v>328.3281935684761</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>168.5152279305241</v>
@@ -24964,10 +24964,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>81.49971487426106</v>
       </c>
       <c r="S32" t="n">
-        <v>29.5825280850014</v>
+        <v>184.2180832787735</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24976,13 +24976,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25007,16 +25007,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.761170149299</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>106.6111980758233</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>69.34652732857948</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,13 +25043,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>64.00123621872456</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>105.3914624865554</v>
+        <v>160.8663307357858</v>
       </c>
       <c r="T33" t="n">
-        <v>197.8174615641865</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>38.6941463733632</v>
       </c>
     </row>
     <row r="34">
@@ -25086,10 +25086,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.5027591842993</v>
+        <v>29.61646664933161</v>
       </c>
       <c r="H34" t="n">
         <v>157.8864513226399</v>
@@ -25122,13 +25122,13 @@
         <v>45.28026121366808</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>155.3412370008718</v>
       </c>
       <c r="S34" t="n">
-        <v>148.2055889154478</v>
+        <v>215.5082519109386</v>
       </c>
       <c r="T34" t="n">
-        <v>225.8595577750547</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2923991651731</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25162,16 +25162,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>414.2143343858988</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>328.3281935684761</v>
       </c>
       <c r="I35" t="n">
         <v>168.5152279305241</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>81.49971487426106</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>184.2180832787735</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>124.4672934374921</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2585806574976</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>215.3047365316116</v>
       </c>
     </row>
     <row r="36">
@@ -25235,16 +25235,16 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>136.761170149299</v>
@@ -25283,16 +25283,16 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>52.20625695106293</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>197.8174615641865</v>
+        <v>85.85951804036314</v>
       </c>
       <c r="U36" t="n">
-        <v>225.903069777428</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,13 +25323,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.5027591842993</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>157.8864513226399</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>140.7683627807171</v>
@@ -25362,7 +25362,7 @@
         <v>155.3412370008718</v>
       </c>
       <c r="S37" t="n">
-        <v>215.5082519109386</v>
+        <v>31.73056408492408</v>
       </c>
       <c r="T37" t="n">
         <v>225.8595577750547</v>
@@ -25377,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>29.21062617764255</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25399,19 +25399,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>375.7258740949896</v>
+        <v>187.384278435645</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.2143343858988</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>168.5152279305241</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>81.49971487426106</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>184.2180832787735</v>
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25481,10 +25481,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>96.90679933689778</v>
       </c>
       <c r="H39" t="n">
         <v>106.6111980758233</v>
@@ -25517,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>64.00123621872456</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>160.8663307357858</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>145.1981867997906</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25532,7 +25532,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25554,16 +25554,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>11.59219272086506</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.5027591842993</v>
       </c>
       <c r="H40" t="n">
         <v>157.8864513226399</v>
@@ -25599,7 +25599,7 @@
         <v>155.3412370008718</v>
       </c>
       <c r="S40" t="n">
-        <v>125.9817560861122</v>
+        <v>215.5082519109386</v>
       </c>
       <c r="T40" t="n">
         <v>225.8595577750547</v>
@@ -25608,13 +25608,13 @@
         <v>286.2923991651731</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25636,13 +25636,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>399.5223375954412</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>328.3281935684761</v>
@@ -25684,7 +25684,7 @@
         <v>218.3313648658995</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>1.085129545594469</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25693,10 +25693,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25706,16 +25706,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -25724,7 +25724,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>82.90034805449167</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>69.34652732857948</v>
@@ -25763,16 +25763,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.903069777428</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>16.83353662494119</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25794,16 +25794,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>157.8864513226399</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>140.7683627807171</v>
@@ -25836,10 +25836,10 @@
         <v>155.3412370008718</v>
       </c>
       <c r="S43" t="n">
-        <v>165.6991234317846</v>
+        <v>215.5082519109386</v>
       </c>
       <c r="T43" t="n">
-        <v>225.8595577750547</v>
+        <v>42.0818699490402</v>
       </c>
       <c r="U43" t="n">
         <v>286.2923991651731</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>100.5629037960105</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>240.2029956834606</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.2143343858988</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>328.3281935684761</v>
       </c>
       <c r="I44" t="n">
         <v>168.5152279305241</v>
@@ -25921,7 +25921,7 @@
         <v>218.3313648658995</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2585806574976</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25943,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25958,7 +25958,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.761170149299</v>
+        <v>3.928436573599981</v>
       </c>
       <c r="H45" t="n">
         <v>106.6111980758233</v>
@@ -25994,13 +25994,13 @@
         <v>64.00123621872456</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>160.8663307357858</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>21.85828182163854</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26034,13 +26034,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>167.5027591842993</v>
       </c>
       <c r="H46" t="n">
-        <v>157.8864513226399</v>
+        <v>20.00015878767221</v>
       </c>
       <c r="I46" t="n">
         <v>140.7683627807171</v>
@@ -26076,7 +26076,7 @@
         <v>215.5082519109386</v>
       </c>
       <c r="T46" t="n">
-        <v>225.8595577750547</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2923991651731</v>
@@ -26085,10 +26085,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>3.065755392674475</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>369037.6481438514</v>
+        <v>369037.6481438512</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>369037.6481438512</v>
+        <v>369037.6481438513</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>643076.1634351519</v>
+        <v>643076.163435152</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>643076.1634351519</v>
+        <v>643076.1634351521</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>643076.163435152</v>
+        <v>643076.1634351518</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>643076.163435152</v>
+        <v>643076.1634351519</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>557221.9772146785</v>
+        <v>557221.9772146788</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>557221.9772146785</v>
+        <v>557221.9772146787</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>557221.9772146788</v>
+        <v>557221.9772146787</v>
       </c>
     </row>
   </sheetData>
@@ -26316,19 +26316,19 @@
         <v>593975.3455698527</v>
       </c>
       <c r="C2" t="n">
-        <v>593975.3455698529</v>
+        <v>593975.3455698526</v>
       </c>
       <c r="D2" t="n">
-        <v>593975.3455698527</v>
+        <v>593975.3455698526</v>
       </c>
       <c r="E2" t="n">
-        <v>224832.1741130918</v>
+        <v>224832.1741130917</v>
       </c>
       <c r="F2" t="n">
         <v>224832.1741130917</v>
       </c>
       <c r="G2" t="n">
-        <v>224832.1741130918</v>
+        <v>224832.1741130917</v>
       </c>
       <c r="H2" t="n">
         <v>224832.1741130917</v>
@@ -26337,25 +26337,25 @@
         <v>368582.2653072447</v>
       </c>
       <c r="J2" t="n">
-        <v>368582.2653072447</v>
+        <v>368582.2653072446</v>
       </c>
       <c r="K2" t="n">
         <v>368582.2653072447</v>
       </c>
       <c r="L2" t="n">
-        <v>368582.2653072445</v>
+        <v>368582.2653072448</v>
       </c>
       <c r="M2" t="n">
         <v>323546.4531496951</v>
       </c>
       <c r="N2" t="n">
+        <v>323546.453149695</v>
+      </c>
+      <c r="O2" t="n">
         <v>323546.4531496951</v>
       </c>
-      <c r="O2" t="n">
-        <v>323546.4531496949</v>
-      </c>
       <c r="P2" t="n">
-        <v>323546.4531496951</v>
+        <v>323546.453149695</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>256687.4423642919</v>
+        <v>256687.4423642918</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26429,13 +26429,13 @@
         <v>51285.24255516817</v>
       </c>
       <c r="F4" t="n">
-        <v>51285.24255516816</v>
+        <v>51285.24255516817</v>
       </c>
       <c r="G4" t="n">
         <v>51285.24255516817</v>
       </c>
       <c r="H4" t="n">
-        <v>51285.24255516815</v>
+        <v>51285.24255516817</v>
       </c>
       <c r="I4" t="n">
         <v>122394.3229864328</v>
@@ -26478,16 +26478,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>13879.19110417314</v>
+        <v>13879.19110417313</v>
       </c>
       <c r="F5" t="n">
-        <v>13879.19110417314</v>
+        <v>13879.19110417313</v>
       </c>
       <c r="G5" t="n">
-        <v>13879.19110417314</v>
+        <v>13879.19110417313</v>
       </c>
       <c r="H5" t="n">
-        <v>13879.19110417314</v>
+        <v>13879.19110417313</v>
       </c>
       <c r="I5" t="n">
         <v>39341.19670197842</v>
@@ -26496,7 +26496,7 @@
         <v>39341.19670197842</v>
       </c>
       <c r="K5" t="n">
-        <v>39341.19670197843</v>
+        <v>39341.19670197842</v>
       </c>
       <c r="L5" t="n">
         <v>39341.19670197842</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>140155.8409016404</v>
+        <v>140195.5631024534</v>
       </c>
       <c r="C6" t="n">
-        <v>140155.8409016405</v>
+        <v>140195.5631024532</v>
       </c>
       <c r="D6" t="n">
-        <v>140155.8409016404</v>
+        <v>140195.5631024532</v>
       </c>
       <c r="E6" t="n">
-        <v>-109792.912567042</v>
+        <v>-98297.0229761915</v>
       </c>
       <c r="F6" t="n">
-        <v>146894.5297972499</v>
+        <v>158390.4193881004</v>
       </c>
       <c r="G6" t="n">
-        <v>146894.52979725</v>
+        <v>158390.4193881004</v>
       </c>
       <c r="H6" t="n">
-        <v>146894.5297972499</v>
+        <v>158390.4193881003</v>
       </c>
       <c r="I6" t="n">
-        <v>87667.24402424261</v>
+        <v>94701.92388837799</v>
       </c>
       <c r="J6" t="n">
-        <v>199030.4346586831</v>
+        <v>206065.1145228183</v>
       </c>
       <c r="K6" t="n">
-        <v>199030.4346586831</v>
+        <v>206065.1145228184</v>
       </c>
       <c r="L6" t="n">
-        <v>199030.4346586829</v>
+        <v>206065.1145228185</v>
       </c>
       <c r="M6" t="n">
-        <v>182696.6515041937</v>
+        <v>191128.994504253</v>
       </c>
       <c r="N6" t="n">
-        <v>182696.6515041937</v>
+        <v>191128.9945042529</v>
       </c>
       <c r="O6" t="n">
-        <v>182696.6515041935</v>
+        <v>191128.994504253</v>
       </c>
       <c r="P6" t="n">
-        <v>182696.6515041937</v>
+        <v>191128.9945042529</v>
       </c>
     </row>
   </sheetData>
@@ -26816,7 +26816,7 @@
         <v>549.9845169886903</v>
       </c>
       <c r="K4" t="n">
-        <v>549.9845169886904</v>
+        <v>549.9845169886903</v>
       </c>
       <c r="L4" t="n">
         <v>549.9845169886903</v>
@@ -31761,40 +31761,40 @@
         <v>41.96066163988178</v>
       </c>
       <c r="J11" t="n">
-        <v>92.37685509001793</v>
+        <v>92.37685509001791</v>
       </c>
       <c r="K11" t="n">
-        <v>138.4489595505898</v>
+        <v>138.4489595505897</v>
       </c>
       <c r="L11" t="n">
         <v>171.7581768169546</v>
       </c>
       <c r="M11" t="n">
-        <v>191.1140659665104</v>
+        <v>191.1140659665103</v>
       </c>
       <c r="N11" t="n">
-        <v>194.206491357453</v>
+        <v>194.2064913574529</v>
       </c>
       <c r="O11" t="n">
-        <v>183.3836827411097</v>
+        <v>183.3836827411096</v>
       </c>
       <c r="P11" t="n">
-        <v>156.513730488089</v>
+        <v>156.5137304880889</v>
       </c>
       <c r="Q11" t="n">
         <v>117.5352934223146</v>
       </c>
       <c r="R11" t="n">
-        <v>68.36940306688862</v>
+        <v>68.36940306688861</v>
       </c>
       <c r="S11" t="n">
         <v>24.80198630747179</v>
       </c>
       <c r="T11" t="n">
-        <v>4.764484698231825</v>
+        <v>4.764484698231824</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08707225033890251</v>
+        <v>0.08707225033890248</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,28 +31831,28 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5823470139116581</v>
+        <v>0.582347013911658</v>
       </c>
       <c r="H12" t="n">
-        <v>5.62424616067312</v>
+        <v>5.624246160673119</v>
       </c>
       <c r="I12" t="n">
-        <v>20.0501055228356</v>
+        <v>20.05010552283559</v>
       </c>
       <c r="J12" t="n">
         <v>55.01902204680275</v>
       </c>
       <c r="K12" t="n">
-        <v>94.03627197888385</v>
+        <v>94.03627197888382</v>
       </c>
       <c r="L12" t="n">
-        <v>126.4433724723537</v>
+        <v>126.4433724723536</v>
       </c>
       <c r="M12" t="n">
         <v>147.5534517266512</v>
       </c>
       <c r="N12" t="n">
-        <v>151.4587525348571</v>
+        <v>151.458752534857</v>
       </c>
       <c r="O12" t="n">
         <v>138.5551687002882</v>
@@ -31861,10 +31861,10 @@
         <v>111.2027381214288</v>
       </c>
       <c r="Q12" t="n">
-        <v>74.3360854951092</v>
+        <v>74.33608549510919</v>
       </c>
       <c r="R12" t="n">
-        <v>36.15659793391858</v>
+        <v>36.15659793391857</v>
       </c>
       <c r="S12" t="n">
         <v>10.81684036805206</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4882201741594717</v>
+        <v>0.4882201741594716</v>
       </c>
       <c r="H13" t="n">
-        <v>4.340721184799669</v>
+        <v>4.340721184799668</v>
       </c>
       <c r="I13" t="n">
-        <v>14.68211214654121</v>
+        <v>14.6821121465412</v>
       </c>
       <c r="J13" t="n">
-        <v>34.51716631307465</v>
+        <v>34.51716631307464</v>
       </c>
       <c r="K13" t="n">
-        <v>56.72230750689133</v>
+        <v>56.72230750689132</v>
       </c>
       <c r="L13" t="n">
-        <v>72.58502480185456</v>
+        <v>72.58502480185454</v>
       </c>
       <c r="M13" t="n">
-        <v>76.53073148210699</v>
+        <v>76.53073148210697</v>
       </c>
       <c r="N13" t="n">
-        <v>74.71100174205812</v>
+        <v>74.7110017420581</v>
       </c>
       <c r="O13" t="n">
-        <v>69.00770243483153</v>
+        <v>69.00770243483151</v>
       </c>
       <c r="P13" t="n">
-        <v>59.04801088197826</v>
+        <v>59.04801088197825</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.88178203802631</v>
+        <v>40.8817820380263</v>
       </c>
       <c r="R13" t="n">
-        <v>21.9521543762977</v>
+        <v>21.95215437629769</v>
       </c>
       <c r="S13" t="n">
-        <v>8.508346126033699</v>
+        <v>8.508346126033697</v>
       </c>
       <c r="T13" t="n">
-        <v>2.086031653226833</v>
+        <v>2.086031653226832</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0266301913177894</v>
+        <v>0.02663019131778939</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31998,40 +31998,40 @@
         <v>41.96066163988178</v>
       </c>
       <c r="J14" t="n">
-        <v>92.37685509001793</v>
+        <v>92.37685509001791</v>
       </c>
       <c r="K14" t="n">
-        <v>138.4489595505898</v>
+        <v>138.4489595505897</v>
       </c>
       <c r="L14" t="n">
         <v>171.7581768169546</v>
       </c>
       <c r="M14" t="n">
-        <v>191.1140659665104</v>
+        <v>191.1140659665103</v>
       </c>
       <c r="N14" t="n">
-        <v>194.206491357453</v>
+        <v>194.2064913574529</v>
       </c>
       <c r="O14" t="n">
-        <v>183.3836827411097</v>
+        <v>183.3836827411096</v>
       </c>
       <c r="P14" t="n">
-        <v>156.513730488089</v>
+        <v>156.5137304880889</v>
       </c>
       <c r="Q14" t="n">
         <v>117.5352934223146</v>
       </c>
       <c r="R14" t="n">
-        <v>68.36940306688862</v>
+        <v>68.36940306688861</v>
       </c>
       <c r="S14" t="n">
         <v>24.80198630747179</v>
       </c>
       <c r="T14" t="n">
-        <v>4.764484698231825</v>
+        <v>4.764484698231824</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08707225033890251</v>
+        <v>0.08707225033890248</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,28 +32068,28 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5823470139116581</v>
+        <v>0.582347013911658</v>
       </c>
       <c r="H15" t="n">
-        <v>5.62424616067312</v>
+        <v>5.624246160673119</v>
       </c>
       <c r="I15" t="n">
-        <v>20.0501055228356</v>
+        <v>20.05010552283559</v>
       </c>
       <c r="J15" t="n">
         <v>55.01902204680275</v>
       </c>
       <c r="K15" t="n">
-        <v>94.03627197888385</v>
+        <v>94.03627197888382</v>
       </c>
       <c r="L15" t="n">
-        <v>126.4433724723537</v>
+        <v>126.4433724723536</v>
       </c>
       <c r="M15" t="n">
         <v>147.5534517266512</v>
       </c>
       <c r="N15" t="n">
-        <v>151.4587525348571</v>
+        <v>151.458752534857</v>
       </c>
       <c r="O15" t="n">
         <v>138.5551687002882</v>
@@ -32098,10 +32098,10 @@
         <v>111.2027381214288</v>
       </c>
       <c r="Q15" t="n">
-        <v>74.3360854951092</v>
+        <v>74.33608549510919</v>
       </c>
       <c r="R15" t="n">
-        <v>36.15659793391858</v>
+        <v>36.15659793391857</v>
       </c>
       <c r="S15" t="n">
         <v>10.81684036805206</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4882201741594717</v>
+        <v>0.4882201741594716</v>
       </c>
       <c r="H16" t="n">
-        <v>4.340721184799669</v>
+        <v>4.340721184799668</v>
       </c>
       <c r="I16" t="n">
-        <v>14.68211214654121</v>
+        <v>14.6821121465412</v>
       </c>
       <c r="J16" t="n">
-        <v>34.51716631307465</v>
+        <v>34.51716631307464</v>
       </c>
       <c r="K16" t="n">
-        <v>56.72230750689133</v>
+        <v>56.72230750689132</v>
       </c>
       <c r="L16" t="n">
-        <v>72.58502480185456</v>
+        <v>72.58502480185454</v>
       </c>
       <c r="M16" t="n">
-        <v>76.53073148210699</v>
+        <v>76.53073148210697</v>
       </c>
       <c r="N16" t="n">
-        <v>74.71100174205812</v>
+        <v>74.7110017420581</v>
       </c>
       <c r="O16" t="n">
-        <v>69.00770243483153</v>
+        <v>69.00770243483151</v>
       </c>
       <c r="P16" t="n">
-        <v>59.04801088197826</v>
+        <v>59.04801088197825</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.88178203802631</v>
+        <v>40.8817820380263</v>
       </c>
       <c r="R16" t="n">
-        <v>21.9521543762977</v>
+        <v>21.95215437629769</v>
       </c>
       <c r="S16" t="n">
-        <v>8.508346126033699</v>
+        <v>8.508346126033697</v>
       </c>
       <c r="T16" t="n">
-        <v>2.086031653226833</v>
+        <v>2.086031653226832</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0266301913177894</v>
+        <v>0.02663019131778939</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32235,40 +32235,40 @@
         <v>41.96066163988178</v>
       </c>
       <c r="J17" t="n">
-        <v>92.37685509001793</v>
+        <v>92.37685509001791</v>
       </c>
       <c r="K17" t="n">
-        <v>138.4489595505898</v>
+        <v>138.4489595505897</v>
       </c>
       <c r="L17" t="n">
         <v>171.7581768169546</v>
       </c>
       <c r="M17" t="n">
-        <v>191.1140659665104</v>
+        <v>191.1140659665103</v>
       </c>
       <c r="N17" t="n">
-        <v>194.206491357453</v>
+        <v>194.2064913574529</v>
       </c>
       <c r="O17" t="n">
-        <v>183.3836827411097</v>
+        <v>183.3836827411096</v>
       </c>
       <c r="P17" t="n">
-        <v>156.513730488089</v>
+        <v>156.5137304880889</v>
       </c>
       <c r="Q17" t="n">
         <v>117.5352934223146</v>
       </c>
       <c r="R17" t="n">
-        <v>68.36940306688862</v>
+        <v>68.36940306688861</v>
       </c>
       <c r="S17" t="n">
         <v>24.80198630747179</v>
       </c>
       <c r="T17" t="n">
-        <v>4.764484698231825</v>
+        <v>4.764484698231824</v>
       </c>
       <c r="U17" t="n">
-        <v>0.08707225033890251</v>
+        <v>0.08707225033890248</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,28 +32305,28 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5823470139116581</v>
+        <v>0.582347013911658</v>
       </c>
       <c r="H18" t="n">
-        <v>5.62424616067312</v>
+        <v>5.624246160673119</v>
       </c>
       <c r="I18" t="n">
-        <v>20.0501055228356</v>
+        <v>20.05010552283559</v>
       </c>
       <c r="J18" t="n">
         <v>55.01902204680275</v>
       </c>
       <c r="K18" t="n">
-        <v>94.03627197888385</v>
+        <v>94.03627197888382</v>
       </c>
       <c r="L18" t="n">
-        <v>126.4433724723537</v>
+        <v>126.4433724723536</v>
       </c>
       <c r="M18" t="n">
         <v>147.5534517266512</v>
       </c>
       <c r="N18" t="n">
-        <v>151.4587525348571</v>
+        <v>151.458752534857</v>
       </c>
       <c r="O18" t="n">
         <v>138.5551687002882</v>
@@ -32335,10 +32335,10 @@
         <v>111.2027381214288</v>
       </c>
       <c r="Q18" t="n">
-        <v>74.3360854951092</v>
+        <v>74.33608549510919</v>
       </c>
       <c r="R18" t="n">
-        <v>36.15659793391858</v>
+        <v>36.15659793391857</v>
       </c>
       <c r="S18" t="n">
         <v>10.81684036805206</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4882201741594717</v>
+        <v>0.4882201741594716</v>
       </c>
       <c r="H19" t="n">
-        <v>4.340721184799669</v>
+        <v>4.340721184799668</v>
       </c>
       <c r="I19" t="n">
-        <v>14.68211214654121</v>
+        <v>14.6821121465412</v>
       </c>
       <c r="J19" t="n">
-        <v>34.51716631307465</v>
+        <v>34.51716631307464</v>
       </c>
       <c r="K19" t="n">
-        <v>56.72230750689133</v>
+        <v>56.72230750689132</v>
       </c>
       <c r="L19" t="n">
-        <v>72.58502480185456</v>
+        <v>72.58502480185454</v>
       </c>
       <c r="M19" t="n">
-        <v>76.53073148210699</v>
+        <v>76.53073148210697</v>
       </c>
       <c r="N19" t="n">
-        <v>74.71100174205812</v>
+        <v>74.7110017420581</v>
       </c>
       <c r="O19" t="n">
-        <v>69.00770243483153</v>
+        <v>69.00770243483151</v>
       </c>
       <c r="P19" t="n">
-        <v>59.04801088197826</v>
+        <v>59.04801088197825</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.88178203802631</v>
+        <v>40.8817820380263</v>
       </c>
       <c r="R19" t="n">
-        <v>21.9521543762977</v>
+        <v>21.95215437629769</v>
       </c>
       <c r="S19" t="n">
-        <v>8.508346126033699</v>
+        <v>8.508346126033697</v>
       </c>
       <c r="T19" t="n">
-        <v>2.086031653226833</v>
+        <v>2.086031653226832</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0266301913177894</v>
+        <v>0.02663019131778939</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32472,40 +32472,40 @@
         <v>41.96066163988178</v>
       </c>
       <c r="J20" t="n">
-        <v>92.37685509001793</v>
+        <v>92.37685509001791</v>
       </c>
       <c r="K20" t="n">
-        <v>138.4489595505898</v>
+        <v>138.4489595505897</v>
       </c>
       <c r="L20" t="n">
         <v>171.7581768169546</v>
       </c>
       <c r="M20" t="n">
-        <v>191.1140659665104</v>
+        <v>191.1140659665103</v>
       </c>
       <c r="N20" t="n">
-        <v>194.206491357453</v>
+        <v>194.2064913574529</v>
       </c>
       <c r="O20" t="n">
-        <v>183.3836827411097</v>
+        <v>183.3836827411096</v>
       </c>
       <c r="P20" t="n">
-        <v>156.513730488089</v>
+        <v>156.5137304880889</v>
       </c>
       <c r="Q20" t="n">
         <v>117.5352934223146</v>
       </c>
       <c r="R20" t="n">
-        <v>68.36940306688862</v>
+        <v>68.36940306688861</v>
       </c>
       <c r="S20" t="n">
         <v>24.80198630747179</v>
       </c>
       <c r="T20" t="n">
-        <v>4.764484698231825</v>
+        <v>4.764484698231824</v>
       </c>
       <c r="U20" t="n">
-        <v>0.08707225033890251</v>
+        <v>0.08707225033890248</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,28 +32542,28 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5823470139116581</v>
+        <v>0.582347013911658</v>
       </c>
       <c r="H21" t="n">
-        <v>5.62424616067312</v>
+        <v>5.624246160673119</v>
       </c>
       <c r="I21" t="n">
-        <v>20.0501055228356</v>
+        <v>20.05010552283559</v>
       </c>
       <c r="J21" t="n">
         <v>55.01902204680275</v>
       </c>
       <c r="K21" t="n">
-        <v>94.03627197888385</v>
+        <v>94.03627197888382</v>
       </c>
       <c r="L21" t="n">
-        <v>126.4433724723537</v>
+        <v>126.4433724723536</v>
       </c>
       <c r="M21" t="n">
         <v>147.5534517266512</v>
       </c>
       <c r="N21" t="n">
-        <v>151.4587525348571</v>
+        <v>151.458752534857</v>
       </c>
       <c r="O21" t="n">
         <v>138.5551687002882</v>
@@ -32572,10 +32572,10 @@
         <v>111.2027381214288</v>
       </c>
       <c r="Q21" t="n">
-        <v>74.3360854951092</v>
+        <v>74.33608549510919</v>
       </c>
       <c r="R21" t="n">
-        <v>36.15659793391858</v>
+        <v>36.15659793391857</v>
       </c>
       <c r="S21" t="n">
         <v>10.81684036805206</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4882201741594717</v>
+        <v>0.4882201741594716</v>
       </c>
       <c r="H22" t="n">
-        <v>4.340721184799669</v>
+        <v>4.340721184799668</v>
       </c>
       <c r="I22" t="n">
-        <v>14.68211214654121</v>
+        <v>14.6821121465412</v>
       </c>
       <c r="J22" t="n">
-        <v>34.51716631307465</v>
+        <v>34.51716631307464</v>
       </c>
       <c r="K22" t="n">
-        <v>56.72230750689133</v>
+        <v>56.72230750689132</v>
       </c>
       <c r="L22" t="n">
-        <v>72.58502480185456</v>
+        <v>72.58502480185454</v>
       </c>
       <c r="M22" t="n">
-        <v>76.53073148210699</v>
+        <v>76.53073148210697</v>
       </c>
       <c r="N22" t="n">
-        <v>74.71100174205812</v>
+        <v>74.7110017420581</v>
       </c>
       <c r="O22" t="n">
-        <v>69.00770243483153</v>
+        <v>69.00770243483151</v>
       </c>
       <c r="P22" t="n">
-        <v>59.04801088197826</v>
+        <v>59.04801088197825</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.88178203802631</v>
+        <v>40.8817820380263</v>
       </c>
       <c r="R22" t="n">
-        <v>21.9521543762977</v>
+        <v>21.95215437629769</v>
       </c>
       <c r="S22" t="n">
-        <v>8.508346126033699</v>
+        <v>8.508346126033697</v>
       </c>
       <c r="T22" t="n">
-        <v>2.086031653226833</v>
+        <v>2.086031653226832</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0266301913177894</v>
+        <v>0.02663019131778939</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>80.42756573540541</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>69.12982849561648</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="M11" t="n">
-        <v>131.2015301826823</v>
+        <v>18.35586404833955</v>
       </c>
       <c r="N11" t="n">
         <v>131.2015301826823</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>107.5445942077698</v>
+        <v>107.5445942077697</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>105.7834178045856</v>
+      </c>
+      <c r="M12" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
+        <v>20.11704045152374</v>
+      </c>
+      <c r="O12" t="n">
         <v>131.2015301826823</v>
-      </c>
-      <c r="M12" t="n">
-        <v>105.7834178045856</v>
-      </c>
-      <c r="N12" t="n">
-        <v>20.11704045152376</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>34.45281568100848</v>
+        <v>34.4528156810084</v>
       </c>
       <c r="L13" t="n">
         <v>100.1750500621707</v>
@@ -35582,10 +35582,10 @@
         <v>118.8431741212867</v>
       </c>
       <c r="O13" t="n">
-        <v>93.5928303488712</v>
+        <v>93.59283034887119</v>
       </c>
       <c r="P13" t="n">
-        <v>56.32657014687175</v>
+        <v>56.32657014687174</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35649,25 +35649,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
       <c r="M14" t="n">
-        <v>18.35586404833955</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>131.2015301826823</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="P14" t="n">
-        <v>131.2015301826823</v>
+        <v>18.35586404833952</v>
       </c>
       <c r="Q14" t="n">
-        <v>107.5445942077698</v>
+        <v>107.5445942077697</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>54.27243072054489</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>131.2015301826823</v>
+        <v>5.419417804632872</v>
       </c>
       <c r="N15" t="n">
-        <v>131.2015301826823</v>
+        <v>66.20860973093157</v>
       </c>
       <c r="O15" t="n">
         <v>131.2015301826823</v>
@@ -35746,7 +35746,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>125.9004582561093</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>34.45281568100848</v>
+        <v>34.45281568100847</v>
       </c>
       <c r="L16" t="n">
         <v>100.1750500621707</v>
@@ -35819,10 +35819,10 @@
         <v>118.8431741212867</v>
       </c>
       <c r="O16" t="n">
-        <v>93.5928303488712</v>
+        <v>93.59283034887119</v>
       </c>
       <c r="P16" t="n">
-        <v>56.32657014687175</v>
+        <v>56.32657014687174</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>80.42756573540541</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>18.35586404833954</v>
+      </c>
+      <c r="N17" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="L17" t="n">
+      <c r="O17" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="M17" t="n">
+      <c r="P17" t="n">
         <v>131.2015301826823</v>
       </c>
-      <c r="N17" t="n">
-        <v>45.47289252070389</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>107.5445942077697</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35968,22 +35968,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="M18" t="n">
-        <v>5.4194178046329</v>
+        <v>5.419417804632872</v>
       </c>
       <c r="N18" t="n">
-        <v>131.2015301826823</v>
+        <v>120.4810404514765</v>
       </c>
       <c r="O18" t="n">
         <v>131.2015301826823</v>
       </c>
       <c r="P18" t="n">
-        <v>120.4810404514764</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="Q18" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>34.45281568100848</v>
+        <v>34.45281568100847</v>
       </c>
       <c r="L19" t="n">
         <v>100.1750500621707</v>
@@ -36056,10 +36056,10 @@
         <v>118.8431741212867</v>
       </c>
       <c r="O19" t="n">
-        <v>93.5928303488712</v>
+        <v>93.59283034887119</v>
       </c>
       <c r="P19" t="n">
-        <v>56.32657014687175</v>
+        <v>56.32657014687174</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>80.42756573540541</v>
+        <v>80.42756573540539</v>
       </c>
       <c r="K20" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>131.2015301826823</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>131.2015301826823</v>
       </c>
       <c r="N20" t="n">
-        <v>45.47289252070389</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>69.12982849561647</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>107.5445942077697</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>54.2724307205449</v>
+        <v>54.27243072054489</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36208,19 +36208,19 @@
         <v>131.2015301826823</v>
       </c>
       <c r="M21" t="n">
-        <v>5.4194178046329</v>
+        <v>5.419417804632872</v>
       </c>
       <c r="N21" t="n">
-        <v>66.20860973093149</v>
+        <v>20.11704045152374</v>
       </c>
       <c r="O21" t="n">
-        <v>131.2015301826823</v>
+        <v>46.09156927940784</v>
       </c>
       <c r="P21" t="n">
         <v>131.2015301826823</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>131.2015301826823</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>34.45281568100848</v>
+        <v>34.45281568100847</v>
       </c>
       <c r="L22" t="n">
         <v>100.1750500621707</v>
@@ -36293,10 +36293,10 @@
         <v>118.8431741212867</v>
       </c>
       <c r="O22" t="n">
-        <v>93.5928303488712</v>
+        <v>93.59283034887119</v>
       </c>
       <c r="P22" t="n">
-        <v>56.32657014687175</v>
+        <v>56.32657014687174</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36378,7 +36378,7 @@
         <v>247.0794429043021</v>
       </c>
       <c r="Q23" t="n">
-        <v>107.5445942077698</v>
+        <v>107.5445942077694</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>54.2724307205449</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>220.6600700171035</v>
@@ -36445,10 +36445,10 @@
         <v>358.7293379959386</v>
       </c>
       <c r="M24" t="n">
-        <v>471.1244815546328</v>
+        <v>268.9237064760883</v>
       </c>
       <c r="N24" t="n">
-        <v>242.9862089959879</v>
+        <v>499.4594147950773</v>
       </c>
       <c r="O24" t="n">
         <v>389.8212435325733</v>
@@ -36603,7 +36603,7 @@
         <v>353.6529763974178</v>
       </c>
       <c r="M26" t="n">
-        <v>410.2813662320701</v>
+        <v>410.2813662320697</v>
       </c>
       <c r="N26" t="n">
         <v>402.1403521728462</v>
@@ -36676,10 +36676,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>18.45929493855884</v>
+        <v>220.6600700171035</v>
       </c>
       <c r="L27" t="n">
-        <v>358.7293379959386</v>
+        <v>300.9601620623311</v>
       </c>
       <c r="M27" t="n">
         <v>471.1244815546328</v>
@@ -36694,7 +36694,7 @@
         <v>295.6910993470357</v>
       </c>
       <c r="Q27" t="n">
-        <v>144.4315991449368</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36922,7 +36922,7 @@
         <v>471.1244815546328</v>
       </c>
       <c r="N30" t="n">
-        <v>387.4178081409253</v>
+        <v>242.9862089959879</v>
       </c>
       <c r="O30" t="n">
         <v>389.8212435325733</v>
@@ -36931,7 +36931,7 @@
         <v>295.6910993470357</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>144.4315991449368</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>247.0794429043021</v>
       </c>
       <c r="Q32" t="n">
-        <v>107.5445942077698</v>
+        <v>107.5445942077694</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37156,10 +37156,10 @@
         <v>358.7293379959386</v>
       </c>
       <c r="M33" t="n">
-        <v>471.1244815546328</v>
+        <v>214.6512757555433</v>
       </c>
       <c r="N33" t="n">
-        <v>242.9862089959879</v>
+        <v>499.4594147950773</v>
       </c>
       <c r="O33" t="n">
         <v>389.8212435325733</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>80.42756573540541</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>242.504521076774</v>
       </c>
       <c r="L35" t="n">
         <v>353.6529763974178</v>
       </c>
       <c r="M35" t="n">
-        <v>410.2813662320701</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>402.1403521728462</v>
+        <v>292.9166696007598</v>
       </c>
       <c r="O35" t="n">
         <v>334.0856525821683</v>
       </c>
       <c r="P35" t="n">
-        <v>158.0510751200947</v>
+        <v>247.0794429043021</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>107.5445942077698</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>54.2724307205449</v>
       </c>
       <c r="K36" t="n">
         <v>220.6600700171035</v>
       </c>
       <c r="L36" t="n">
-        <v>65.73253619796773</v>
+        <v>358.7293379959386</v>
       </c>
       <c r="M36" t="n">
-        <v>418.782986806008</v>
+        <v>174.4886012949409</v>
       </c>
       <c r="N36" t="n">
-        <v>418.782986806008</v>
+        <v>20.11704045152376</v>
       </c>
       <c r="O36" t="n">
         <v>389.8212435325733</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>295.6910993470357</v>
       </c>
       <c r="Q36" t="n">
         <v>144.4315991449368</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>80.42756573540541</v>
       </c>
       <c r="K38" t="n">
         <v>242.504521076774</v>
       </c>
       <c r="L38" t="n">
-        <v>353.6529763974178</v>
+        <v>244.4292938253315</v>
       </c>
       <c r="M38" t="n">
-        <v>410.2813662320701</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>402.1403521728462</v>
       </c>
       <c r="O38" t="n">
-        <v>249.6322066254889</v>
+        <v>334.0856525821683</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>247.0794429043021</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>107.5445942077698</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37630,7 +37630,7 @@
         <v>358.7293379959386</v>
       </c>
       <c r="M39" t="n">
-        <v>418.782986806008</v>
+        <v>195.1867548230419</v>
       </c>
       <c r="N39" t="n">
         <v>418.782986806008</v>
@@ -37639,7 +37639,7 @@
         <v>389.8212435325733</v>
       </c>
       <c r="P39" t="n">
-        <v>72.09486736406927</v>
+        <v>295.6910993470357</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>80.42756573540541</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>240.8254327124573</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>353.6529763974178</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>410.2813662320701</v>
       </c>
       <c r="N41" t="n">
         <v>402.1403521728462</v>
@@ -37797,7 +37797,7 @@
         <v>334.0856525821683</v>
       </c>
       <c r="P41" t="n">
-        <v>247.0794429043021</v>
+        <v>158.0510751200949</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37867,13 +37867,13 @@
         <v>358.7293379959386</v>
       </c>
       <c r="M42" t="n">
-        <v>373.1926311604224</v>
+        <v>5.4194178046329</v>
       </c>
       <c r="N42" t="n">
-        <v>20.11704045152376</v>
+        <v>418.782986806008</v>
       </c>
       <c r="O42" t="n">
-        <v>389.8212435325733</v>
+        <v>358.9285105338788</v>
       </c>
       <c r="P42" t="n">
         <v>295.6910993470357</v>
@@ -38028,13 +38028,13 @@
         <v>410.2813662320701</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>402.1403521728462</v>
       </c>
       <c r="O44" t="n">
-        <v>324.2655501586277</v>
+        <v>169.2046408900838</v>
       </c>
       <c r="P44" t="n">
-        <v>247.0794429043021</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>220.6600700171035</v>
       </c>
       <c r="L45" t="n">
         <v>358.7293379959386</v>
       </c>
       <c r="M45" t="n">
-        <v>418.782986806008</v>
+        <v>5.4194178046329</v>
       </c>
       <c r="N45" t="n">
-        <v>418.782986806008</v>
+        <v>243.4586546623767</v>
       </c>
       <c r="O45" t="n">
         <v>389.8212435325733</v>
       </c>
       <c r="P45" t="n">
-        <v>72.09486736406927</v>
+        <v>295.6910993470357</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>144.4315991449368</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
